--- a/Grind75 Confidence.xlsx
+++ b/Grind75 Confidence.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\perma\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Digital Archive\RustProjects\Grind75\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DD64E500-1B39-43FF-977C-95C7F34523AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D97A7B83-F672-4824-9F34-941FCFBF95F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24990" yWindow="4095" windowWidth="22890" windowHeight="14895" xr2:uid="{11A97F8B-2513-4167-B9DF-06FEC2A8D357}"/>
+    <workbookView xWindow="18165" yWindow="0" windowWidth="41070" windowHeight="21000" xr2:uid="{11A97F8B-2513-4167-B9DF-06FEC2A8D357}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,11 +35,204 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="60">
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>two_sum</t>
+  </si>
+  <si>
+    <t>Confidence</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Use hashmap to store the number that’s needed. Return true if that number is found.</t>
+  </si>
+  <si>
+    <t>valid_parentheses</t>
+  </si>
+  <si>
+    <t>Iterate through the string. If have open paren, push it onto the stack. If closed then pop and verify they match. Return if stack is emtpy.</t>
+  </si>
+  <si>
+    <t>merge_two_sorted_lists</t>
+  </si>
+  <si>
+    <t>Just keep pointer and check the two heads against each other.</t>
+  </si>
+  <si>
+    <t>best_time_to_buy_and_sell</t>
+  </si>
+  <si>
+    <t>Keep a max profit and a window_minimum. If current price is lower than min, make that the min, else calculate the possible profit for that day and only keep the max.</t>
+  </si>
+  <si>
+    <t>valid_palindrome</t>
+  </si>
+  <si>
+    <t>Just keep start and end pointers and check. Ignore invalid characters.</t>
+  </si>
+  <si>
+    <t>invert_binary_tree</t>
+  </si>
+  <si>
+    <t>Recurse. Set the current.left = invert_tree(right)</t>
+  </si>
+  <si>
+    <t>valid_anagram</t>
+  </si>
+  <si>
+    <t>Just hash and check if we have enough numbers.</t>
+  </si>
+  <si>
+    <t>binary_search</t>
+  </si>
+  <si>
+    <t>Just binary search</t>
+  </si>
+  <si>
+    <t>flood_fill</t>
+  </si>
+  <si>
+    <t>Just DFS</t>
+  </si>
+  <si>
+    <t>lowest_common_ancestor</t>
+  </si>
+  <si>
+    <t>If both are on left, then move down and check left. Same for right. If one is on left and one is on right then we're the lowest common ancestor</t>
+  </si>
+  <si>
+    <t>balanced_binary_tree</t>
+  </si>
+  <si>
+    <t>Send signal down each side, counting depth, check depth on the way up, if anything doesn't match definition of balanced then false.</t>
+  </si>
+  <si>
+    <t>linked_list_cycle</t>
+  </si>
+  <si>
+    <t>Hash set or slow and fast pointer. Both work in O(n)</t>
+  </si>
+  <si>
+    <t>queue_using_stacks</t>
+  </si>
+  <si>
+    <t>Keep two stacks. Input and output. On pop, if ouput is empty, pop off input, and push onto output. Then pop from output.</t>
+  </si>
+  <si>
+    <t>first_bad_version</t>
+  </si>
+  <si>
+    <t>ransom_note</t>
+  </si>
+  <si>
+    <t>Just hash table and check counts</t>
+  </si>
+  <si>
+    <t>climbing_stairs</t>
+  </si>
+  <si>
+    <t>Recursion and memoization and handle base case</t>
+  </si>
+  <si>
+    <t>longest_palindrome</t>
+  </si>
+  <si>
+    <t>Assuming you can reorder characters. Hashtable and count them. Allowed only one odd set, all others must be even.</t>
+  </si>
+  <si>
+    <t>reverse_linked_list</t>
+  </si>
+  <si>
+    <t>Just pointer management</t>
+  </si>
+  <si>
+    <t>majority_element</t>
+  </si>
+  <si>
+    <t>Keep running tally. If candidate num then increase tally. If not then decrease tally. If tally is 0 then make that number the new candidate</t>
+  </si>
+  <si>
+    <t>add_binary</t>
+  </si>
+  <si>
+    <t>Must to string parsing. Remember binary math and handling carrying. 1+0=1 &lt;&gt; 1+1= 1 and carry &lt;&gt; 1+1+carry = 1 + carry</t>
+  </si>
+  <si>
+    <t>diameter_of_binary_tree</t>
+  </si>
+  <si>
+    <t>Get length of left, and length of right. Return max of left or right + 1 for self. Keep potential max as well. At finish return potential max.</t>
+  </si>
+  <si>
+    <t>middle_of_linked_list</t>
+  </si>
+  <si>
+    <t>Fast and slow pointers. Stop when fast is at end.</t>
+  </si>
+  <si>
+    <t>maximum_depth_of_binary_tree</t>
+  </si>
+  <si>
+    <t>DFS and return max(l, r) + 1</t>
+  </si>
+  <si>
+    <t>contains_duplicate</t>
+  </si>
+  <si>
+    <t>O(n)</t>
+  </si>
+  <si>
+    <t>Time Complexity</t>
+  </si>
+  <si>
+    <t>O(n/2)</t>
+  </si>
+  <si>
+    <t>Hashmap and return true if its in the hash.</t>
+  </si>
+  <si>
+    <t>maximum_subarray</t>
+  </si>
+  <si>
+    <t>Keep max and potential_max. Set potential max to max(next number, potential_max + next number). If potential_max &gt; max { max = potential_max }</t>
+  </si>
+  <si>
+    <t>insert_interval</t>
+  </si>
+  <si>
+    <t>Linar solution. Just crawl through and combine if overlaping. Binary solution. Binary search down to insert point. Then consume left and right until possible.</t>
+  </si>
+  <si>
+    <t>O(n) or O(log(n))</t>
+  </si>
+  <si>
+    <t>zero_one_matrix</t>
+  </si>
+  <si>
+    <t>DFS the whole map. Keep queue of next points. Insert into queue if current path is larger.</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
@@ -66,14 +259,36 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFAAC1E0"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -83,6 +298,22 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{59B00E1C-0850-40C9-A663-E45A32C81570}" name="Table1" displayName="Table1" ref="C5:F32" totalsRowShown="0">
+  <autoFilter ref="C5:F32" xr:uid="{59B00E1C-0850-40C9-A663-E45A32C81570}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C6:F32">
+    <sortCondition ref="D5:D32"/>
+  </sortState>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{3E47EF83-B245-4B73-A7C3-75E681F43F13}" name="Name"/>
+    <tableColumn id="2" xr3:uid="{6CBE43AC-C563-4032-A990-DE0BA9338384}" name="Confidence" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{A9886979-9BC5-46F1-A237-9E0C2B0DBA49}" name="Description"/>
+    <tableColumn id="4" xr3:uid="{F687C78F-3A5A-4FFC-A018-767879695849}" name="Time Complexity"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -402,14 +633,421 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E99034D2-4130-4274-94E8-AEA72754CE66}">
-  <dimension ref="A1"/>
+  <dimension ref="C5:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.7109375" customWidth="1"/>
+    <col min="5" max="5" width="149.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="1">
+        <v>3</v>
+      </c>
+      <c r="E7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="1">
+        <v>3</v>
+      </c>
+      <c r="E8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="E9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="1">
+        <v>5</v>
+      </c>
+      <c r="E10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="1">
+        <v>6</v>
+      </c>
+      <c r="E11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="1">
+        <v>6</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="1">
+        <v>6</v>
+      </c>
+      <c r="E13" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="E14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="1">
+        <v>8</v>
+      </c>
+      <c r="E15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="1">
+        <v>9</v>
+      </c>
+      <c r="E16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="1">
+        <v>9</v>
+      </c>
+      <c r="E17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="1">
+        <v>9.5</v>
+      </c>
+      <c r="E18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="1">
+        <v>9.5</v>
+      </c>
+      <c r="E19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="1">
+        <v>9.5</v>
+      </c>
+      <c r="E20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="1">
+        <v>9.5</v>
+      </c>
+      <c r="E21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="1">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="E22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" s="1">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="E23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" s="1">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="E24" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" s="1">
+        <v>10</v>
+      </c>
+      <c r="E25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" s="1">
+        <v>10</v>
+      </c>
+      <c r="E26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" s="1">
+        <v>10</v>
+      </c>
+      <c r="E27" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>25</v>
+      </c>
+      <c r="D28" s="1">
+        <v>10</v>
+      </c>
+      <c r="E28" t="s">
+        <v>26</v>
+      </c>
+      <c r="F28" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>29</v>
+      </c>
+      <c r="D29" s="1">
+        <v>10</v>
+      </c>
+      <c r="E29" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>30</v>
+      </c>
+      <c r="D30" s="1">
+        <v>10</v>
+      </c>
+      <c r="E30" t="s">
+        <v>31</v>
+      </c>
+      <c r="F30" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
+        <v>46</v>
+      </c>
+      <c r="D31" s="1">
+        <v>10</v>
+      </c>
+      <c r="E31" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>48</v>
+      </c>
+      <c r="D32" s="1">
+        <v>10</v>
+      </c>
+      <c r="E32" t="s">
+        <v>52</v>
+      </c>
+      <c r="F32" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C5:E5 C6:C32 E6:E32">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6:D32">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{B6A511FC-FEE8-4225-A2C7-E6E9F264DC56}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="10"/>
+        <color rgb="FFAAC1E0"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{2EE54BA2-69A6-40D6-AD82-42C9C48961C1}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{B6A511FC-FEE8-4225-A2C7-E6E9F264DC56}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{2EE54BA2-69A6-40D6-AD82-42C9C48961C1}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>10</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D6:D32</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/Grind75 Confidence.xlsx
+++ b/Grind75 Confidence.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Digital Archive\RustProjects\Grind75\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D97A7B83-F672-4824-9F34-941FCFBF95F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7975F14F-076A-4254-9EBA-24CFF69C45D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18165" yWindow="0" windowWidth="41070" windowHeight="21000" xr2:uid="{11A97F8B-2513-4167-B9DF-06FEC2A8D357}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="66">
   <si>
     <t>Name</t>
   </si>
@@ -216,6 +216,24 @@
   </si>
   <si>
     <t>DFS the whole map. Keep queue of next points. Insert into queue if current path is larger.</t>
+  </si>
+  <si>
+    <t>k_closest_points</t>
+  </si>
+  <si>
+    <t>QuickSelect</t>
+  </si>
+  <si>
+    <t>Worst Case</t>
+  </si>
+  <si>
+    <t>O(n^2)</t>
+  </si>
+  <si>
+    <t>longest_substring_without_duplicates</t>
+  </si>
+  <si>
+    <t>Sliding window. A low and high pointer. If invalid move the low pointer. If valid move the high pointer. Keep track of current sub length.</t>
   </si>
 </sst>
 </file>
@@ -301,16 +319,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{59B00E1C-0850-40C9-A663-E45A32C81570}" name="Table1" displayName="Table1" ref="C5:F32" totalsRowShown="0">
-  <autoFilter ref="C5:F32" xr:uid="{59B00E1C-0850-40C9-A663-E45A32C81570}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C6:F32">
-    <sortCondition ref="D5:D32"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{59B00E1C-0850-40C9-A663-E45A32C81570}" name="Table1" displayName="Table1" ref="C5:G34" totalsRowShown="0">
+  <autoFilter ref="C5:G34" xr:uid="{59B00E1C-0850-40C9-A663-E45A32C81570}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C6:G34">
+    <sortCondition ref="D5:D34"/>
   </sortState>
-  <tableColumns count="4">
+  <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{3E47EF83-B245-4B73-A7C3-75E681F43F13}" name="Name"/>
     <tableColumn id="2" xr3:uid="{6CBE43AC-C563-4032-A990-DE0BA9338384}" name="Confidence" dataDxfId="0"/>
     <tableColumn id="3" xr3:uid="{A9886979-9BC5-46F1-A237-9E0C2B0DBA49}" name="Description"/>
     <tableColumn id="4" xr3:uid="{F687C78F-3A5A-4FFC-A018-767879695849}" name="Time Complexity"/>
+    <tableColumn id="5" xr3:uid="{4851A160-0A69-4A15-A31B-7CEDC06037D3}" name="Worst Case"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -633,21 +652,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E99034D2-4130-4274-94E8-AEA72754CE66}">
-  <dimension ref="C5:F32"/>
+  <dimension ref="C5:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="36.7109375" customWidth="1"/>
     <col min="5" max="5" width="149.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -660,324 +680,358 @@
       <c r="F5" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="6" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D7" s="1">
         <v>2</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
+    <row r="8" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
         <v>53</v>
-      </c>
-      <c r="D7" s="1">
-        <v>3</v>
-      </c>
-      <c r="E7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
-        <v>58</v>
       </c>
       <c r="D8" s="1">
         <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F8" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="1">
+        <v>3</v>
+      </c>
+      <c r="E9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D10" s="1">
         <v>3.5</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
+    <row r="11" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D11" s="1">
         <v>5</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
+    <row r="12" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
         <v>23</v>
-      </c>
-      <c r="D11" s="1">
-        <v>6</v>
-      </c>
-      <c r="E11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C12" t="s">
-        <v>42</v>
       </c>
       <c r="D12" s="1">
         <v>6</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="D13" s="1">
         <v>6</v>
       </c>
       <c r="E13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="1">
+        <v>6</v>
+      </c>
+      <c r="E14" t="s">
         <v>56</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F14" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C14" t="s">
+    <row r="15" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" s="1">
+        <v>6</v>
+      </c>
+      <c r="E15" t="s">
+        <v>65</v>
+      </c>
+      <c r="F15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D16" s="1">
         <v>6.5</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E16" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" s="1">
-        <v>8</v>
-      </c>
-      <c r="E15" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C16" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="1">
-        <v>9</v>
-      </c>
-      <c r="E16" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="17" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D17" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E17" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D18" s="1">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="E18" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="D19" s="1">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="E19" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="D20" s="1">
         <v>9.5</v>
       </c>
       <c r="E20" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="D21" s="1">
         <v>9.5</v>
       </c>
       <c r="E21" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D22" s="1">
-        <v>9.8000000000000007</v>
+        <v>9.5</v>
       </c>
       <c r="E22" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D23" s="1">
-        <v>9.8000000000000007</v>
+        <v>9.5</v>
       </c>
       <c r="E23" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="D24" s="1">
         <v>9.8000000000000007</v>
       </c>
       <c r="E24" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="D25" s="1">
-        <v>10</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="E25" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="D26" s="1">
-        <v>10</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="E26" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D27" s="1">
         <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D28" s="1">
         <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>26</v>
-      </c>
-      <c r="F28" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D29" s="1">
         <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D30" s="1">
         <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F30" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D31" s="1">
         <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="D32" s="1">
         <v>10</v>
       </c>
       <c r="E32" t="s">
+        <v>31</v>
+      </c>
+      <c r="F32" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>46</v>
+      </c>
+      <c r="D33" s="1">
+        <v>10</v>
+      </c>
+      <c r="E33" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
+        <v>48</v>
+      </c>
+      <c r="D34" s="1">
+        <v>10</v>
+      </c>
+      <c r="E34" t="s">
         <v>52</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F34" t="s">
         <v>49</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C5:E5 C6:C32 E6:E32">
+  <conditionalFormatting sqref="C5:E5 C6:C34 E6:E34">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -989,7 +1043,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D6:D32">
+  <conditionalFormatting sqref="D6:D34">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="10"/>
+        <color rgb="FFAAC1E0"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{2EE54BA2-69A6-40D6-AD82-42C9C48961C1}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
     <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="min"/>
@@ -999,18 +1065,6 @@
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{B6A511FC-FEE8-4225-A2C7-E6E9F264DC56}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="1">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="10"/>
-        <color rgb="FFAAC1E0"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{2EE54BA2-69A6-40D6-AD82-42C9C48961C1}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -1024,14 +1078,6 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{B6A511FC-FEE8-4225-A2C7-E6E9F264DC56}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
           <x14:cfRule type="dataBar" id="{2EE54BA2-69A6-40D6-AD82-42C9C48961C1}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
@@ -1044,7 +1090,15 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D6:D32</xm:sqref>
+          <x14:cfRule type="dataBar" id="{B6A511FC-FEE8-4225-A2C7-E6E9F264DC56}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D6:D34</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/Grind75 Confidence.xlsx
+++ b/Grind75 Confidence.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Digital Archive\RustProjects\Grind75\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7975F14F-076A-4254-9EBA-24CFF69C45D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5D81F83-387C-40AC-B10A-C3BA240B3587}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18165" yWindow="0" windowWidth="41070" windowHeight="21000" xr2:uid="{11A97F8B-2513-4167-B9DF-06FEC2A8D357}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="70">
   <si>
     <t>Name</t>
   </si>
@@ -234,13 +234,25 @@
   </si>
   <si>
     <t>Sliding window. A low and high pointer. If invalid move the low pointer. If valid move the high pointer. Keep track of current sub length.</t>
+  </si>
+  <si>
+    <t>Resources</t>
+  </si>
+  <si>
+    <t>three_sum</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=IIxoo93bmPQ</t>
+  </si>
+  <si>
+    <t>Sort list . Three pointers. Iterate through list. Left and right pointers to calculate sum. Move left and right to new values depending on sum.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -252,6 +264,14 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -274,14 +294,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
@@ -319,17 +342,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{59B00E1C-0850-40C9-A663-E45A32C81570}" name="Table1" displayName="Table1" ref="C5:G34" totalsRowShown="0">
-  <autoFilter ref="C5:G34" xr:uid="{59B00E1C-0850-40C9-A663-E45A32C81570}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C6:G34">
-    <sortCondition ref="D5:D34"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{59B00E1C-0850-40C9-A663-E45A32C81570}" name="Table1" displayName="Table1" ref="C5:H35" totalsRowShown="0">
+  <autoFilter ref="C5:H35" xr:uid="{59B00E1C-0850-40C9-A663-E45A32C81570}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C6:H35">
+    <sortCondition ref="D5:D35"/>
   </sortState>
-  <tableColumns count="5">
+  <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{3E47EF83-B245-4B73-A7C3-75E681F43F13}" name="Name"/>
     <tableColumn id="2" xr3:uid="{6CBE43AC-C563-4032-A990-DE0BA9338384}" name="Confidence" dataDxfId="0"/>
     <tableColumn id="3" xr3:uid="{A9886979-9BC5-46F1-A237-9E0C2B0DBA49}" name="Description"/>
     <tableColumn id="4" xr3:uid="{F687C78F-3A5A-4FFC-A018-767879695849}" name="Time Complexity"/>
     <tableColumn id="5" xr3:uid="{4851A160-0A69-4A15-A31B-7CEDC06037D3}" name="Worst Case"/>
+    <tableColumn id="6" xr3:uid="{DF1F1C43-26DE-4E7F-B0B3-68E3ADBBD8E8}" name="Resources"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -652,10 +676,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E99034D2-4130-4274-94E8-AEA72754CE66}">
-  <dimension ref="C5:G34"/>
+  <dimension ref="C5:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -665,9 +689,10 @@
     <col min="5" max="5" width="149.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="45.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -683,8 +708,11 @@
       <c r="G5" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="6" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>60</v>
       </c>
@@ -701,7 +729,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>36</v>
       </c>
@@ -712,7 +740,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>53</v>
       </c>
@@ -726,7 +754,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>58</v>
       </c>
@@ -740,7 +768,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>27</v>
       </c>
@@ -751,7 +779,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>7</v>
       </c>
@@ -762,7 +790,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>23</v>
       </c>
@@ -773,7 +801,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>42</v>
       </c>
@@ -784,7 +812,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>55</v>
       </c>
@@ -798,7 +826,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>64</v>
       </c>
@@ -812,7 +840,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>9</v>
       </c>
@@ -823,215 +851,235 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="E17" t="s">
+        <v>69</v>
+      </c>
+      <c r="F17" t="s">
+        <v>63</v>
+      </c>
+      <c r="G17" t="s">
+        <v>63</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
         <v>40</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D18" s="1">
         <v>8</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E18" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C18" t="s">
+    <row r="19" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
         <v>11</v>
-      </c>
-      <c r="D18" s="1">
-        <v>9</v>
-      </c>
-      <c r="E18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C19" t="s">
-        <v>44</v>
       </c>
       <c r="D19" s="1">
         <v>9</v>
       </c>
       <c r="E19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="1">
+        <v>9</v>
+      </c>
+      <c r="E20" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C20" t="s">
+    <row r="21" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
         <v>5</v>
-      </c>
-      <c r="D20" s="1">
-        <v>9.5</v>
-      </c>
-      <c r="E20" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C21" t="s">
-        <v>13</v>
       </c>
       <c r="D21" s="1">
         <v>9.5</v>
       </c>
       <c r="E21" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D22" s="1">
         <v>9.5</v>
       </c>
       <c r="E22" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D23" s="1">
         <v>9.5</v>
       </c>
       <c r="E23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="1">
+        <v>9.5</v>
+      </c>
+      <c r="E24" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C24" t="s">
+    <row r="25" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
         <v>19</v>
-      </c>
-      <c r="D24" s="1">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="E24" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C25" t="s">
-        <v>34</v>
       </c>
       <c r="D25" s="1">
         <v>9.8000000000000007</v>
       </c>
       <c r="E25" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="26" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D26" s="1">
         <v>9.8000000000000007</v>
       </c>
       <c r="E26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>38</v>
+      </c>
+      <c r="D27" s="1">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="E27" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C27" t="s">
+    <row r="28" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
         <v>1</v>
-      </c>
-      <c r="D27" s="1">
-        <v>10</v>
-      </c>
-      <c r="E27" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C28" t="s">
-        <v>15</v>
       </c>
       <c r="D28" s="1">
         <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="29" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D29" s="1">
         <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="30" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D30" s="1">
         <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>26</v>
-      </c>
-      <c r="F30" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="31" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D31" s="1">
         <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="32" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="F31" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D32" s="1">
         <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>31</v>
-      </c>
-      <c r="F32" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="D33" s="1">
         <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>47</v>
+        <v>31</v>
+      </c>
+      <c r="F33" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="34" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D34" s="1">
         <v>10</v>
       </c>
       <c r="E34" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="35" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>48</v>
+      </c>
+      <c r="D35" s="1">
+        <v>10</v>
+      </c>
+      <c r="E35" t="s">
         <v>52</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F35" t="s">
         <v>49</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C5:E5 C6:C34 E6:E34">
+  <conditionalFormatting sqref="C5:E5 C6:C35 E6:E35">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -1043,7 +1091,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D6:D34">
+  <conditionalFormatting sqref="D6:D35">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -1069,10 +1117,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="H17" r:id="rId1" xr:uid="{8EE94633-AAF7-4B1D-B7EE-1CF0D6E36A70}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
@@ -1098,7 +1149,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D6:D34</xm:sqref>
+          <xm:sqref>D6:D35</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/Grind75 Confidence.xlsx
+++ b/Grind75 Confidence.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Digital Archive\RustProjects\Grind75\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5D81F83-387C-40AC-B10A-C3BA240B3587}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F88F57E-CD6C-4DC8-B038-4B15A7D4BE40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18165" yWindow="0" windowWidth="41070" windowHeight="21000" xr2:uid="{11A97F8B-2513-4167-B9DF-06FEC2A8D357}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="72">
   <si>
     <t>Name</t>
   </si>
@@ -246,6 +246,12 @@
   </si>
   <si>
     <t>Sort list . Three pointers. Iterate through list. Left and right pointers to calculate sum. Move left and right to new values depending on sum.</t>
+  </si>
+  <si>
+    <t>binary_tree_level_order_traversal</t>
+  </si>
+  <si>
+    <t>Do BFS with queue</t>
   </si>
 </sst>
 </file>
@@ -342,10 +348,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{59B00E1C-0850-40C9-A663-E45A32C81570}" name="Table1" displayName="Table1" ref="C5:H35" totalsRowShown="0">
-  <autoFilter ref="C5:H35" xr:uid="{59B00E1C-0850-40C9-A663-E45A32C81570}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C6:H35">
-    <sortCondition ref="D5:D35"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{59B00E1C-0850-40C9-A663-E45A32C81570}" name="Table1" displayName="Table1" ref="C5:H36" totalsRowShown="0">
+  <autoFilter ref="C5:H36" xr:uid="{59B00E1C-0850-40C9-A663-E45A32C81570}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C6:H36">
+    <sortCondition ref="D5:D36"/>
   </sortState>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{3E47EF83-B245-4B73-A7C3-75E681F43F13}" name="Name"/>
@@ -676,10 +682,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E99034D2-4130-4274-94E8-AEA72754CE66}">
-  <dimension ref="C5:H35"/>
+  <dimension ref="C5:H36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -781,305 +787,322 @@
     </row>
     <row r="11" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="D11" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E11" t="s">
-        <v>8</v>
+        <v>71</v>
+      </c>
+      <c r="F11" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="D12" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E12" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="D13" s="1">
         <v>6</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="D14" s="1">
         <v>6</v>
       </c>
       <c r="E14" t="s">
-        <v>56</v>
-      </c>
-      <c r="F14" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="D15" s="1">
         <v>6</v>
       </c>
       <c r="E15" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="F15" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="D16" s="1">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>65</v>
+      </c>
+      <c r="F16" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="D17" s="1">
         <v>6.5</v>
       </c>
       <c r="E17" t="s">
-        <v>69</v>
-      </c>
-      <c r="F17" t="s">
-        <v>63</v>
-      </c>
-      <c r="G17" t="s">
-        <v>63</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>68</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="D18" s="1">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="E18" t="s">
-        <v>41</v>
+        <v>69</v>
+      </c>
+      <c r="F18" t="s">
+        <v>63</v>
+      </c>
+      <c r="G18" t="s">
+        <v>63</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="D19" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E19" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="D20" s="1">
         <v>9</v>
       </c>
       <c r="E20" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="D21" s="1">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="E21" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D22" s="1">
         <v>9.5</v>
       </c>
       <c r="E22" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D23" s="1">
         <v>9.5</v>
       </c>
       <c r="E23" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D24" s="1">
         <v>9.5</v>
       </c>
       <c r="E24" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="D25" s="1">
-        <v>9.8000000000000007</v>
+        <v>9.5</v>
       </c>
       <c r="E25" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="D26" s="1">
         <v>9.8000000000000007</v>
       </c>
       <c r="E26" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D27" s="1">
         <v>9.8000000000000007</v>
       </c>
       <c r="E27" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="D28" s="1">
-        <v>10</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="E28" t="s">
-        <v>4</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D29" s="1">
         <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D30" s="1">
         <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D31" s="1">
         <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>26</v>
-      </c>
-      <c r="F31" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D32" s="1">
         <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>18</v>
+        <v>26</v>
+      </c>
+      <c r="F32" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="33" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D33" s="1">
         <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>31</v>
-      </c>
-      <c r="F33" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="D34" s="1">
         <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>47</v>
+        <v>31</v>
+      </c>
+      <c r="F34" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="35" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D35" s="1">
         <v>10</v>
       </c>
       <c r="E35" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>48</v>
+      </c>
+      <c r="D36" s="1">
+        <v>10</v>
+      </c>
+      <c r="E36" t="s">
         <v>52</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F36" t="s">
         <v>49</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C5:E5 C6:C35 E6:E35">
+  <conditionalFormatting sqref="C5:E5 C6:C36 E6:E36">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -1091,7 +1114,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D6:D35">
+  <conditionalFormatting sqref="D6:D36">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -1118,7 +1141,7 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="H17" r:id="rId1" xr:uid="{8EE94633-AAF7-4B1D-B7EE-1CF0D6E36A70}"/>
+    <hyperlink ref="H18" r:id="rId1" xr:uid="{8EE94633-AAF7-4B1D-B7EE-1CF0D6E36A70}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -1149,7 +1172,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D6:D35</xm:sqref>
+          <xm:sqref>D6:D36</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/Grind75 Confidence.xlsx
+++ b/Grind75 Confidence.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Digital Archive\RustProjects\Grind75\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F88F57E-CD6C-4DC8-B038-4B15A7D4BE40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B107F4A6-A1DE-4FEF-AD9F-B60FCA8549E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18165" yWindow="0" windowWidth="41070" windowHeight="21000" xr2:uid="{11A97F8B-2513-4167-B9DF-06FEC2A8D357}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="74">
   <si>
     <t>Name</t>
   </si>
@@ -251,7 +251,13 @@
     <t>binary_tree_level_order_traversal</t>
   </si>
   <si>
-    <t>Do BFS with queue</t>
+    <t>Do BFS with queue. Push values onto row. Push row onto return.</t>
+  </si>
+  <si>
+    <t>reverse_polish_notation</t>
+  </si>
+  <si>
+    <t>Just use stack. Push numbers and pop operators</t>
   </si>
 </sst>
 </file>
@@ -348,10 +354,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{59B00E1C-0850-40C9-A663-E45A32C81570}" name="Table1" displayName="Table1" ref="C5:H36" totalsRowShown="0">
-  <autoFilter ref="C5:H36" xr:uid="{59B00E1C-0850-40C9-A663-E45A32C81570}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C6:H36">
-    <sortCondition ref="D5:D36"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{59B00E1C-0850-40C9-A663-E45A32C81570}" name="Table1" displayName="Table1" ref="C5:H37" totalsRowShown="0">
+  <autoFilter ref="C5:H37" xr:uid="{59B00E1C-0850-40C9-A663-E45A32C81570}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C6:H37">
+    <sortCondition ref="D5:D37"/>
   </sortState>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{3E47EF83-B245-4B73-A7C3-75E681F43F13}" name="Name"/>
@@ -682,10 +688,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E99034D2-4130-4274-94E8-AEA72754CE66}">
-  <dimension ref="C5:H36"/>
+  <dimension ref="C5:H37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -929,180 +935,197 @@
     </row>
     <row r="22" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
-        <v>5</v>
+        <v>72</v>
       </c>
       <c r="D22" s="1">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="E22" t="s">
-        <v>6</v>
+        <v>73</v>
+      </c>
+      <c r="F22" t="s">
+        <v>49</v>
+      </c>
+      <c r="G22" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D23" s="1">
         <v>9.5</v>
       </c>
       <c r="E23" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D24" s="1">
         <v>9.5</v>
       </c>
       <c r="E24" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D25" s="1">
         <v>9.5</v>
       </c>
       <c r="E25" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="D26" s="1">
-        <v>9.8000000000000007</v>
+        <v>9.5</v>
       </c>
       <c r="E26" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="D27" s="1">
         <v>9.8000000000000007</v>
       </c>
       <c r="E27" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D28" s="1">
         <v>9.8000000000000007</v>
       </c>
       <c r="E28" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="D29" s="1">
-        <v>10</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="E29" t="s">
-        <v>4</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D30" s="1">
         <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D31" s="1">
         <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D32" s="1">
         <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>26</v>
-      </c>
-      <c r="F32" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D33" s="1">
         <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>18</v>
+        <v>26</v>
+      </c>
+      <c r="F33" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D34" s="1">
         <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>31</v>
-      </c>
-      <c r="F34" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="D35" s="1">
         <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>47</v>
+        <v>31</v>
+      </c>
+      <c r="F35" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="36" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D36" s="1">
         <v>10</v>
       </c>
       <c r="E36" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="37" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
+        <v>48</v>
+      </c>
+      <c r="D37" s="1">
+        <v>10</v>
+      </c>
+      <c r="E37" t="s">
         <v>52</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F37" t="s">
         <v>49</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C5:E5 C6:C36 E6:E36">
+  <conditionalFormatting sqref="C5:E5 C6:C37 E6:E37">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -1114,7 +1137,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D6:D36">
+  <conditionalFormatting sqref="D6:D37">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -1172,7 +1195,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D6:D36</xm:sqref>
+          <xm:sqref>D6:D37</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/Grind75 Confidence.xlsx
+++ b/Grind75 Confidence.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Digital Archive\RustProjects\Grind75\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B107F4A6-A1DE-4FEF-AD9F-B60FCA8549E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD6A6D03-7909-4B80-91BE-51A82482F624}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18165" yWindow="0" windowWidth="41070" windowHeight="21000" xr2:uid="{11A97F8B-2513-4167-B9DF-06FEC2A8D357}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="77">
   <si>
     <t>Name</t>
   </si>
@@ -258,6 +258,15 @@
   </si>
   <si>
     <t>Just use stack. Push numbers and pop operators</t>
+  </si>
+  <si>
+    <t>course_schedule</t>
+  </si>
+  <si>
+    <t>Topological Sort. If not visited every node then the course isn't possible.</t>
+  </si>
+  <si>
+    <t>O(v+e)</t>
   </si>
 </sst>
 </file>
@@ -354,10 +363,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{59B00E1C-0850-40C9-A663-E45A32C81570}" name="Table1" displayName="Table1" ref="C5:H37" totalsRowShown="0">
-  <autoFilter ref="C5:H37" xr:uid="{59B00E1C-0850-40C9-A663-E45A32C81570}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C6:H37">
-    <sortCondition ref="D5:D37"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{59B00E1C-0850-40C9-A663-E45A32C81570}" name="Table1" displayName="Table1" ref="C5:H38" totalsRowShown="0">
+  <autoFilter ref="C5:H38" xr:uid="{59B00E1C-0850-40C9-A663-E45A32C81570}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C6:H38">
+    <sortCondition ref="D5:D38"/>
   </sortState>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{3E47EF83-B245-4B73-A7C3-75E681F43F13}" name="Name"/>
@@ -688,10 +697,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E99034D2-4130-4274-94E8-AEA72754CE66}">
-  <dimension ref="C5:H37"/>
+  <dimension ref="C5:H38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -782,350 +791,364 @@
     </row>
     <row r="10" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>27</v>
+        <v>74</v>
       </c>
       <c r="D10" s="1">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="E10" t="s">
-        <v>28</v>
+        <v>75</v>
+      </c>
+      <c r="F10" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="D11" s="1">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="E11" t="s">
-        <v>71</v>
-      </c>
-      <c r="F11" t="s">
-        <v>49</v>
-      </c>
-      <c r="G11" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="D12" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E12" t="s">
-        <v>8</v>
+        <v>71</v>
+      </c>
+      <c r="F12" t="s">
+        <v>49</v>
+      </c>
+      <c r="G12" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="D13" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E13" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="D14" s="1">
         <v>6</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="D15" s="1">
         <v>6</v>
       </c>
       <c r="E15" t="s">
-        <v>56</v>
-      </c>
-      <c r="F15" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="D16" s="1">
         <v>6</v>
       </c>
       <c r="E16" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="F16" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="D17" s="1">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>65</v>
+      </c>
+      <c r="F17" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="D18" s="1">
         <v>6.5</v>
       </c>
       <c r="E18" t="s">
-        <v>69</v>
-      </c>
-      <c r="F18" t="s">
-        <v>63</v>
-      </c>
-      <c r="G18" t="s">
-        <v>63</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>68</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="D19" s="1">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="E19" t="s">
-        <v>41</v>
+        <v>69</v>
+      </c>
+      <c r="F19" t="s">
+        <v>63</v>
+      </c>
+      <c r="G19" t="s">
+        <v>63</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="D20" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E20" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="D21" s="1">
         <v>9</v>
       </c>
       <c r="E21" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="D22" s="1">
         <v>9</v>
       </c>
       <c r="E22" t="s">
-        <v>73</v>
-      </c>
-      <c r="F22" t="s">
-        <v>49</v>
-      </c>
-      <c r="G22" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
-        <v>5</v>
+        <v>72</v>
       </c>
       <c r="D23" s="1">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="E23" t="s">
-        <v>6</v>
+        <v>73</v>
+      </c>
+      <c r="F23" t="s">
+        <v>49</v>
+      </c>
+      <c r="G23" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D24" s="1">
         <v>9.5</v>
       </c>
       <c r="E24" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D25" s="1">
         <v>9.5</v>
       </c>
       <c r="E25" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D26" s="1">
         <v>9.5</v>
       </c>
       <c r="E26" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="D27" s="1">
-        <v>9.8000000000000007</v>
+        <v>9.5</v>
       </c>
       <c r="E27" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="D28" s="1">
         <v>9.8000000000000007</v>
       </c>
       <c r="E28" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D29" s="1">
         <v>9.8000000000000007</v>
       </c>
       <c r="E29" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="D30" s="1">
-        <v>10</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="E30" t="s">
-        <v>4</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D31" s="1">
         <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D32" s="1">
         <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D33" s="1">
         <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>26</v>
-      </c>
-      <c r="F33" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D34" s="1">
         <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>18</v>
+        <v>26</v>
+      </c>
+      <c r="F34" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="35" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D35" s="1">
         <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>31</v>
-      </c>
-      <c r="F35" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="D36" s="1">
         <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>47</v>
+        <v>31</v>
+      </c>
+      <c r="F36" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="37" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D37" s="1">
         <v>10</v>
       </c>
       <c r="E37" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="38" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
+        <v>48</v>
+      </c>
+      <c r="D38" s="1">
+        <v>10</v>
+      </c>
+      <c r="E38" t="s">
         <v>52</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F38" t="s">
         <v>49</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C5:E5 C6:C37 E6:E37">
+  <conditionalFormatting sqref="C5:E5 C6:C38 E6:E38">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -1137,7 +1160,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D6:D37">
+  <conditionalFormatting sqref="D6:D38">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -1164,7 +1187,7 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="H18" r:id="rId1" xr:uid="{8EE94633-AAF7-4B1D-B7EE-1CF0D6E36A70}"/>
+    <hyperlink ref="H19" r:id="rId1" xr:uid="{8EE94633-AAF7-4B1D-B7EE-1CF0D6E36A70}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -1195,7 +1218,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D6:D37</xm:sqref>
+          <xm:sqref>D6:D38</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/Grind75 Confidence.xlsx
+++ b/Grind75 Confidence.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Digital Archive\RustProjects\Grind75\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD6A6D03-7909-4B80-91BE-51A82482F624}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{820912DC-FD67-4024-84E4-00249859D62A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18165" yWindow="0" windowWidth="41070" windowHeight="21000" xr2:uid="{11A97F8B-2513-4167-B9DF-06FEC2A8D357}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="82">
   <si>
     <t>Name</t>
   </si>
@@ -267,6 +267,21 @@
   </si>
   <si>
     <t>O(v+e)</t>
+  </si>
+  <si>
+    <t>trie</t>
+  </si>
+  <si>
+    <t>Just a data structure for word searching. Create node for each character.</t>
+  </si>
+  <si>
+    <t>coin_change</t>
+  </si>
+  <si>
+    <t>Use dynamic programming. Keep track of min in memo. Top down or bottom up solution works.</t>
+  </si>
+  <si>
+    <t>O(m*n)</t>
   </si>
 </sst>
 </file>
@@ -363,8 +378,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{59B00E1C-0850-40C9-A663-E45A32C81570}" name="Table1" displayName="Table1" ref="C5:H38" totalsRowShown="0">
-  <autoFilter ref="C5:H38" xr:uid="{59B00E1C-0850-40C9-A663-E45A32C81570}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{59B00E1C-0850-40C9-A663-E45A32C81570}" name="Table1" displayName="Table1" ref="C5:H40" totalsRowShown="0">
+  <autoFilter ref="C5:H40" xr:uid="{59B00E1C-0850-40C9-A663-E45A32C81570}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C6:H38">
     <sortCondition ref="D5:D38"/>
   </sortState>
@@ -697,10 +712,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E99034D2-4130-4274-94E8-AEA72754CE66}">
-  <dimension ref="C5:H38"/>
+  <dimension ref="C5:H40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1147,8 +1162,33 @@
         <v>49</v>
       </c>
     </row>
+    <row r="39" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
+        <v>77</v>
+      </c>
+      <c r="D39" s="1">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="E39" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="40" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
+        <v>79</v>
+      </c>
+      <c r="D40" s="1">
+        <v>6</v>
+      </c>
+      <c r="E40" t="s">
+        <v>80</v>
+      </c>
+      <c r="F40" t="s">
+        <v>81</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="C5:E5 C6:C38 E6:E38">
+  <conditionalFormatting sqref="C5:E5 C6:C40 E6:E40">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -1160,7 +1200,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D6:D38">
+  <conditionalFormatting sqref="D6:D40">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -1218,7 +1258,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D6:D38</xm:sqref>
+          <xm:sqref>D6:D40</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/Grind75 Confidence.xlsx
+++ b/Grind75 Confidence.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Digital Archive\RustProjects\Grind75\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{820912DC-FD67-4024-84E4-00249859D62A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F49B9A2A-5732-43CA-A1BC-E0D69D8076BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18165" yWindow="0" windowWidth="41070" windowHeight="21000" xr2:uid="{11A97F8B-2513-4167-B9DF-06FEC2A8D357}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="86">
   <si>
     <t>Name</t>
   </si>
@@ -282,6 +282,18 @@
   </si>
   <si>
     <t>O(m*n)</t>
+  </si>
+  <si>
+    <t>product_array_except_self</t>
+  </si>
+  <si>
+    <t>Array for multiplying everything to the left, and then everything to the right. Then mult the two together.</t>
+  </si>
+  <si>
+    <t>validate_binary_tree</t>
+  </si>
+  <si>
+    <t>Just use recursion</t>
   </si>
 </sst>
 </file>
@@ -378,10 +390,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{59B00E1C-0850-40C9-A663-E45A32C81570}" name="Table1" displayName="Table1" ref="C5:H40" totalsRowShown="0">
-  <autoFilter ref="C5:H40" xr:uid="{59B00E1C-0850-40C9-A663-E45A32C81570}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C6:H38">
-    <sortCondition ref="D5:D38"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{59B00E1C-0850-40C9-A663-E45A32C81570}" name="Table1" displayName="Table1" ref="C5:H42" totalsRowShown="0">
+  <autoFilter ref="C5:H42" xr:uid="{59B00E1C-0850-40C9-A663-E45A32C81570}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C6:H41">
+    <sortCondition ref="D5:D41"/>
   </sortState>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{3E47EF83-B245-4B73-A7C3-75E681F43F13}" name="Name"/>
@@ -712,10 +724,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E99034D2-4130-4274-94E8-AEA72754CE66}">
-  <dimension ref="C5:H40"/>
+  <dimension ref="C5:H42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -909,286 +921,314 @@
     </row>
     <row r="18" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>9</v>
+        <v>79</v>
       </c>
       <c r="D18" s="1">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>80</v>
+      </c>
+      <c r="F18" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="D19" s="1">
         <v>6.5</v>
       </c>
       <c r="E19" t="s">
-        <v>69</v>
-      </c>
-      <c r="F19" t="s">
-        <v>63</v>
-      </c>
-      <c r="G19" t="s">
-        <v>63</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>68</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="D20" s="1">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="E20" t="s">
-        <v>41</v>
+        <v>69</v>
+      </c>
+      <c r="F20" t="s">
+        <v>63</v>
+      </c>
+      <c r="G20" t="s">
+        <v>63</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
-        <v>11</v>
+        <v>82</v>
       </c>
       <c r="D21" s="1">
-        <v>9</v>
+        <v>6.5</v>
       </c>
       <c r="E21" t="s">
-        <v>12</v>
+        <v>83</v>
+      </c>
+      <c r="F21" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D22" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E22" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
-        <v>72</v>
+        <v>11</v>
       </c>
       <c r="D23" s="1">
         <v>9</v>
       </c>
       <c r="E23" t="s">
-        <v>73</v>
-      </c>
-      <c r="F23" t="s">
-        <v>49</v>
-      </c>
-      <c r="G23" t="s">
-        <v>49</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="D24" s="1">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="E24" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="D25" s="1">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="E25" t="s">
-        <v>14</v>
+        <v>73</v>
+      </c>
+      <c r="F25" t="s">
+        <v>49</v>
+      </c>
+      <c r="G25" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="D26" s="1">
         <v>9.5</v>
       </c>
       <c r="E26" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="D27" s="1">
         <v>9.5</v>
       </c>
       <c r="E27" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D28" s="1">
-        <v>9.8000000000000007</v>
+        <v>9.5</v>
       </c>
       <c r="E28" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D29" s="1">
-        <v>9.8000000000000007</v>
+        <v>9.5</v>
       </c>
       <c r="E29" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="D30" s="1">
         <v>9.8000000000000007</v>
       </c>
       <c r="E30" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="D31" s="1">
-        <v>10</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="E31" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="D32" s="1">
-        <v>10</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="E32" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
-        <v>21</v>
+        <v>77</v>
       </c>
       <c r="D33" s="1">
-        <v>10</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="E33" t="s">
-        <v>22</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="D34" s="1">
         <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>26</v>
-      </c>
-      <c r="F34" t="s">
-        <v>49</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D35" s="1">
         <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D36" s="1">
         <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>31</v>
-      </c>
-      <c r="F36" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="D37" s="1">
         <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>47</v>
+        <v>26</v>
+      </c>
+      <c r="F37" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="D38" s="1">
         <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>52</v>
-      </c>
-      <c r="F38" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
-        <v>77</v>
+        <v>30</v>
       </c>
       <c r="D39" s="1">
-        <v>9.8000000000000007</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>78</v>
+        <v>31</v>
+      </c>
+      <c r="F39" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
-        <v>79</v>
+        <v>46</v>
       </c>
       <c r="D40" s="1">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>80</v>
-      </c>
-      <c r="F40" t="s">
-        <v>81</v>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="41" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C41" t="s">
+        <v>48</v>
+      </c>
+      <c r="D41" s="1">
+        <v>10</v>
+      </c>
+      <c r="E41" t="s">
+        <v>52</v>
+      </c>
+      <c r="F41" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="42" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C42" t="s">
+        <v>84</v>
+      </c>
+      <c r="D42" s="1">
+        <v>7</v>
+      </c>
+      <c r="E42" t="s">
+        <v>85</v>
+      </c>
+      <c r="F42" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C5:E5 C6:C40 E6:E40">
+  <conditionalFormatting sqref="C5:E5 C6:C42 E6:E42">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -1200,7 +1240,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D6:D40">
+  <conditionalFormatting sqref="D6:D42">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -1227,7 +1267,7 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="H19" r:id="rId1" xr:uid="{8EE94633-AAF7-4B1D-B7EE-1CF0D6E36A70}"/>
+    <hyperlink ref="H20" r:id="rId1" xr:uid="{8EE94633-AAF7-4B1D-B7EE-1CF0D6E36A70}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -1258,7 +1298,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D6:D40</xm:sqref>
+          <xm:sqref>D6:D42</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/Grind75 Confidence.xlsx
+++ b/Grind75 Confidence.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Digital Archive\RustProjects\Grind75\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F49B9A2A-5732-43CA-A1BC-E0D69D8076BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF6B912D-5597-45E8-BE4B-B2B678999BB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18165" yWindow="0" windowWidth="41070" windowHeight="21000" xr2:uid="{11A97F8B-2513-4167-B9DF-06FEC2A8D357}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="91">
   <si>
     <t>Name</t>
   </si>
@@ -294,6 +294,21 @@
   </si>
   <si>
     <t>Just use recursion</t>
+  </si>
+  <si>
+    <t>diffuse_the_bomb</t>
+  </si>
+  <si>
+    <t>sliding window. Set answer to left side of window or right side of window.</t>
+  </si>
+  <si>
+    <t>number_of_islands</t>
+  </si>
+  <si>
+    <t>Just dfs or bfs search</t>
+  </si>
+  <si>
+    <t>O(n*m)</t>
   </si>
 </sst>
 </file>
@@ -390,10 +405,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{59B00E1C-0850-40C9-A663-E45A32C81570}" name="Table1" displayName="Table1" ref="C5:H42" totalsRowShown="0">
-  <autoFilter ref="C5:H42" xr:uid="{59B00E1C-0850-40C9-A663-E45A32C81570}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C6:H41">
-    <sortCondition ref="D5:D41"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{59B00E1C-0850-40C9-A663-E45A32C81570}" name="Table1" displayName="Table1" ref="C5:H44" totalsRowShown="0">
+  <autoFilter ref="C5:H44" xr:uid="{59B00E1C-0850-40C9-A663-E45A32C81570}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C6:H44">
+    <sortCondition ref="D5:D44"/>
   </sortState>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{3E47EF83-B245-4B73-A7C3-75E681F43F13}" name="Name"/>
@@ -724,10 +739,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E99034D2-4130-4274-94E8-AEA72754CE66}">
-  <dimension ref="C5:H42"/>
+  <dimension ref="C5:H44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -980,255 +995,283 @@
     </row>
     <row r="22" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="D22" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E22" t="s">
-        <v>41</v>
+        <v>85</v>
+      </c>
+      <c r="F22" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="D23" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E23" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
-        <v>44</v>
+        <v>86</v>
       </c>
       <c r="D24" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E24" t="s">
-        <v>45</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="D25" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E25" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="F25" t="s">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="G25" t="s">
-        <v>49</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D26" s="1">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="E26" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="D27" s="1">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="E27" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="D28" s="1">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="E28" t="s">
-        <v>18</v>
+        <v>73</v>
+      </c>
+      <c r="F28" t="s">
+        <v>49</v>
+      </c>
+      <c r="G28" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="D29" s="1">
         <v>9.5</v>
       </c>
       <c r="E29" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D30" s="1">
-        <v>9.8000000000000007</v>
+        <v>9.5</v>
       </c>
       <c r="E30" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="D31" s="1">
-        <v>9.8000000000000007</v>
+        <v>9.5</v>
       </c>
       <c r="E31" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D32" s="1">
-        <v>9.8000000000000007</v>
+        <v>9.5</v>
       </c>
       <c r="E32" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="D33" s="1">
         <v>9.8000000000000007</v>
       </c>
       <c r="E33" t="s">
-        <v>78</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="D34" s="1">
-        <v>10</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="E34" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="D35" s="1">
-        <v>10</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="E35" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
-        <v>21</v>
+        <v>77</v>
       </c>
       <c r="D36" s="1">
-        <v>10</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="E36" t="s">
-        <v>22</v>
+        <v>78</v>
       </c>
     </row>
     <row r="37" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="D37" s="1">
         <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>26</v>
-      </c>
-      <c r="F37" t="s">
-        <v>49</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D38" s="1">
         <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D39" s="1">
         <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>31</v>
-      </c>
-      <c r="F39" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
     </row>
     <row r="40" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="D40" s="1">
         <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>47</v>
+        <v>26</v>
+      </c>
+      <c r="F40" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="41" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="D41" s="1">
         <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>52</v>
-      </c>
-      <c r="F41" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
-        <v>84</v>
+        <v>30</v>
       </c>
       <c r="D42" s="1">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="F42" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="43" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C43" t="s">
+        <v>46</v>
+      </c>
+      <c r="D43" s="1">
+        <v>10</v>
+      </c>
+      <c r="E43" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="44" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C44" t="s">
+        <v>48</v>
+      </c>
+      <c r="D44" s="1">
+        <v>10</v>
+      </c>
+      <c r="E44" t="s">
+        <v>52</v>
+      </c>
+      <c r="F44" t="s">
         <v>49</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C5:E5 C6:C42 E6:E42">
+  <conditionalFormatting sqref="C5:E5 C6:C44 E6:E44">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -1240,7 +1283,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D6:D42">
+  <conditionalFormatting sqref="D6:D44">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -1298,7 +1341,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D6:D42</xm:sqref>
+          <xm:sqref>D6:D44</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/Grind75 Confidence.xlsx
+++ b/Grind75 Confidence.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Digital Archive\RustProjects\Grind75\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Digital Archive\RustProjects\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF6B912D-5597-45E8-BE4B-B2B678999BB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{575F1717-58A2-4E57-8907-DB7034F8FFD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18165" yWindow="0" windowWidth="41070" windowHeight="21000" xr2:uid="{11A97F8B-2513-4167-B9DF-06FEC2A8D357}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
   <si>
     <t>Name</t>
   </si>
@@ -309,6 +309,9 @@
   </si>
   <si>
     <t>O(n*m)</t>
+  </si>
+  <si>
+    <t>coin_change_two</t>
   </si>
 </sst>
 </file>
@@ -405,8 +408,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{59B00E1C-0850-40C9-A663-E45A32C81570}" name="Table1" displayName="Table1" ref="C5:H44" totalsRowShown="0">
-  <autoFilter ref="C5:H44" xr:uid="{59B00E1C-0850-40C9-A663-E45A32C81570}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{59B00E1C-0850-40C9-A663-E45A32C81570}" name="Table1" displayName="Table1" ref="C5:H45" totalsRowShown="0">
+  <autoFilter ref="C5:H45" xr:uid="{59B00E1C-0850-40C9-A663-E45A32C81570}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C6:H44">
     <sortCondition ref="D5:D44"/>
   </sortState>
@@ -739,10 +742,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E99034D2-4130-4274-94E8-AEA72754CE66}">
-  <dimension ref="C5:H44"/>
+  <dimension ref="C5:H45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+      <selection activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -939,7 +942,7 @@
         <v>79</v>
       </c>
       <c r="D18" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E18" t="s">
         <v>80</v>
@@ -1123,7 +1126,7 @@
         <v>32</v>
       </c>
       <c r="D32" s="1">
-        <v>9.5</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="E32" t="s">
         <v>33</v>
@@ -1270,8 +1273,17 @@
         <v>49</v>
       </c>
     </row>
+    <row r="45" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C45" t="s">
+        <v>91</v>
+      </c>
+      <c r="D45" s="1"/>
+      <c r="F45" t="s">
+        <v>90</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="C5:E5 C6:C44 E6:E44">
+  <conditionalFormatting sqref="C5:E5 C6:C45 E6:E45">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -1283,7 +1295,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D6:D44">
+  <conditionalFormatting sqref="D6:D45">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -1341,7 +1353,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D6:D44</xm:sqref>
+          <xm:sqref>D6:D45</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/Grind75 Confidence.xlsx
+++ b/Grind75 Confidence.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Digital Archive\RustProjects\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{575F1717-58A2-4E57-8907-DB7034F8FFD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6728F779-7679-4446-BBB4-77FC803940FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18165" yWindow="0" windowWidth="41070" windowHeight="21000" xr2:uid="{11A97F8B-2513-4167-B9DF-06FEC2A8D357}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="94">
   <si>
     <t>Name</t>
   </si>
@@ -312,6 +312,12 @@
   </si>
   <si>
     <t>coin_change_two</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Mjy4hd2xgrs</t>
+  </si>
+  <si>
+    <t>Use bottom up. Use an i cut value to prevent duplicates. Cut off half the tree. Start at the left counting coins and adding to the value.</t>
   </si>
 </sst>
 </file>
@@ -745,7 +751,7 @@
   <dimension ref="C5:H45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H45" sqref="H45"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1132,7 +1138,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>19</v>
       </c>
@@ -1143,7 +1149,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>34</v>
       </c>
@@ -1154,7 +1160,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>38</v>
       </c>
@@ -1165,7 +1171,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="36" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>77</v>
       </c>
@@ -1176,7 +1182,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="37" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>1</v>
       </c>
@@ -1187,7 +1193,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>15</v>
       </c>
@@ -1198,7 +1204,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="39" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>21</v>
       </c>
@@ -1209,7 +1215,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="40" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>25</v>
       </c>
@@ -1223,7 +1229,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="41" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>29</v>
       </c>
@@ -1234,7 +1240,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="42" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>30</v>
       </c>
@@ -1248,7 +1254,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="43" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>46</v>
       </c>
@@ -1259,7 +1265,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="44" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>48</v>
       </c>
@@ -1273,13 +1279,21 @@
         <v>49</v>
       </c>
     </row>
-    <row r="45" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>91</v>
       </c>
-      <c r="D45" s="1"/>
+      <c r="D45" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="E45" t="s">
+        <v>93</v>
+      </c>
       <c r="F45" t="s">
         <v>90</v>
+      </c>
+      <c r="H45" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/Grind75 Confidence.xlsx
+++ b/Grind75 Confidence.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Digital Archive\RustProjects\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6728F779-7679-4446-BBB4-77FC803940FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3849AB06-B69A-4774-B8C0-55AF2801AE4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18165" yWindow="0" windowWidth="41070" windowHeight="21000" xr2:uid="{11A97F8B-2513-4167-B9DF-06FEC2A8D357}"/>
   </bookViews>
@@ -263,9 +263,6 @@
     <t>course_schedule</t>
   </si>
   <si>
-    <t>Topological Sort. If not visited every node then the course isn't possible.</t>
-  </si>
-  <si>
     <t>O(v+e)</t>
   </si>
   <si>
@@ -318,6 +315,9 @@
   </si>
   <si>
     <t>Use bottom up. Use an i cut value to prevent duplicates. Cut off half the tree. Start at the left counting coins and adding to the value.</t>
+  </si>
+  <si>
+    <t>Just use DFS. Checking visited. Save known good nodes. Topological Sort is another option (kahns algorithm). If not visited every node then the course isn't possible.</t>
   </si>
 </sst>
 </file>
@@ -751,7 +751,7 @@
   <dimension ref="C5:H45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -845,13 +845,13 @@
         <v>74</v>
       </c>
       <c r="D10" s="1">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="E10" t="s">
+        <v>93</v>
+      </c>
+      <c r="F10" t="s">
         <v>75</v>
-      </c>
-      <c r="F10" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="11" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -945,16 +945,16 @@
     </row>
     <row r="18" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D18" s="1">
         <v>7</v>
       </c>
       <c r="E18" t="s">
+        <v>79</v>
+      </c>
+      <c r="F18" t="s">
         <v>80</v>
-      </c>
-      <c r="F18" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="19" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -990,13 +990,13 @@
     </row>
     <row r="21" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D21" s="1">
         <v>6.5</v>
       </c>
       <c r="E21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F21" t="s">
         <v>49</v>
@@ -1004,13 +1004,13 @@
     </row>
     <row r="22" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D22" s="1">
         <v>7</v>
       </c>
       <c r="E22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F22" t="s">
         <v>49</v>
@@ -1029,30 +1029,30 @@
     </row>
     <row r="24" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D24" s="1">
         <v>8</v>
       </c>
       <c r="E24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D25" s="1">
         <v>8</v>
       </c>
       <c r="E25" t="s">
+        <v>88</v>
+      </c>
+      <c r="F25" t="s">
         <v>89</v>
       </c>
-      <c r="F25" t="s">
-        <v>90</v>
-      </c>
       <c r="G25" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -1173,13 +1173,13 @@
     </row>
     <row r="36" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D36" s="1">
         <v>9.8000000000000007</v>
       </c>
       <c r="E36" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="37" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -1281,19 +1281,19 @@
     </row>
     <row r="45" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D45" s="1">
         <v>3.5</v>
       </c>
       <c r="E45" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F45" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H45" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/Grind75 Confidence.xlsx
+++ b/Grind75 Confidence.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Digital Archive\RustProjects\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3849AB06-B69A-4774-B8C0-55AF2801AE4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88E329BE-800D-47C2-8602-E13B5EA04C5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18165" yWindow="0" windowWidth="41070" windowHeight="21000" xr2:uid="{11A97F8B-2513-4167-B9DF-06FEC2A8D357}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="96">
   <si>
     <t>Name</t>
   </si>
@@ -182,9 +182,6 @@
     <t>DFS and return max(l, r) + 1</t>
   </si>
   <si>
-    <t>contains_duplicate</t>
-  </si>
-  <si>
     <t>O(n)</t>
   </si>
   <si>
@@ -318,6 +315,15 @@
   </si>
   <si>
     <t>Just use DFS. Checking visited. Save known good nodes. Topological Sort is another option (kahns algorithm). If not visited every node then the course isn't possible.</t>
+  </si>
+  <si>
+    <t>search_in_rotated_sorted_array</t>
+  </si>
+  <si>
+    <t>Use binary search with modifications based on if we're in the left sorted or right sorted.</t>
+  </si>
+  <si>
+    <t>O(log(n))</t>
   </si>
 </sst>
 </file>
@@ -414,10 +420,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{59B00E1C-0850-40C9-A663-E45A32C81570}" name="Table1" displayName="Table1" ref="C5:H45" totalsRowShown="0">
-  <autoFilter ref="C5:H45" xr:uid="{59B00E1C-0850-40C9-A663-E45A32C81570}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C6:H44">
-    <sortCondition ref="D5:D44"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{59B00E1C-0850-40C9-A663-E45A32C81570}" name="Table1" displayName="Table1" ref="C5:H46" totalsRowShown="0">
+  <autoFilter ref="C5:H46" xr:uid="{59B00E1C-0850-40C9-A663-E45A32C81570}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C6:H45">
+    <sortCondition ref="D5:D45"/>
   </sortState>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{3E47EF83-B245-4B73-A7C3-75E681F43F13}" name="Name"/>
@@ -748,10 +754,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E99034D2-4130-4274-94E8-AEA72754CE66}">
-  <dimension ref="C5:H45"/>
+  <dimension ref="C5:H46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -775,30 +781,30 @@
         <v>3</v>
       </c>
       <c r="F5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D6" s="1">
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -814,147 +820,150 @@
     </row>
     <row r="8" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D8" s="1">
         <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D9" s="1">
         <v>3</v>
       </c>
       <c r="E9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>74</v>
+        <v>27</v>
       </c>
       <c r="D10" s="1">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="E10" t="s">
-        <v>93</v>
-      </c>
-      <c r="F10" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>27</v>
+        <v>89</v>
       </c>
       <c r="D11" s="1">
         <v>3.5</v>
       </c>
       <c r="E11" t="s">
-        <v>28</v>
+        <v>91</v>
+      </c>
+      <c r="F11" t="s">
+        <v>88</v>
+      </c>
+      <c r="H11" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D12" s="1">
         <v>4</v>
       </c>
       <c r="E12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>7</v>
+        <v>73</v>
       </c>
       <c r="D13" s="1">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="E13" t="s">
-        <v>8</v>
+        <v>92</v>
+      </c>
+      <c r="F13" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="D14" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E14" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="D15" s="1">
         <v>6</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="D16" s="1">
         <v>6</v>
       </c>
       <c r="E16" t="s">
-        <v>56</v>
-      </c>
-      <c r="F16" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="D17" s="1">
         <v>6</v>
       </c>
       <c r="E17" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="F17" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="D18" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E18" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="F18" t="s">
-        <v>80</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -970,334 +979,345 @@
     </row>
     <row r="20" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D20" s="1">
         <v>6.5</v>
       </c>
       <c r="E20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D21" s="1">
         <v>6.5</v>
       </c>
       <c r="E21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D22" s="1">
         <v>7</v>
       </c>
       <c r="E22" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F22" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="D23" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E23" t="s">
-        <v>41</v>
+        <v>83</v>
+      </c>
+      <c r="F23" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="D24" s="1">
         <v>8</v>
       </c>
       <c r="E24" t="s">
-        <v>86</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D25" s="1">
         <v>8</v>
       </c>
       <c r="E25" t="s">
-        <v>88</v>
-      </c>
-      <c r="F25" t="s">
-        <v>89</v>
-      </c>
-      <c r="G25" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
-        <v>11</v>
+        <v>86</v>
       </c>
       <c r="D26" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E26" t="s">
-        <v>12</v>
+        <v>87</v>
+      </c>
+      <c r="F26" t="s">
+        <v>88</v>
+      </c>
+      <c r="G26" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="27" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="D27" s="1">
         <v>9</v>
       </c>
       <c r="E27" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="D28" s="1">
         <v>9</v>
       </c>
       <c r="E28" t="s">
-        <v>73</v>
-      </c>
-      <c r="F28" t="s">
-        <v>49</v>
-      </c>
-      <c r="G28" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
-        <v>5</v>
+        <v>71</v>
       </c>
       <c r="D29" s="1">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="E29" t="s">
-        <v>6</v>
+        <v>72</v>
+      </c>
+      <c r="F29" t="s">
+        <v>48</v>
+      </c>
+      <c r="G29" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="30" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D30" s="1">
         <v>9.5</v>
       </c>
       <c r="E30" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D31" s="1">
         <v>9.5</v>
       </c>
       <c r="E31" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" s="1">
+        <v>9.5</v>
+      </c>
+      <c r="E32" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
         <v>32</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D33" s="1">
         <v>9.6999999999999993</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E33" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C33" t="s">
+    <row r="34" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
         <v>19</v>
-      </c>
-      <c r="D33" s="1">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="E33" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="34" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C34" t="s">
-        <v>34</v>
       </c>
       <c r="D34" s="1">
         <v>9.8000000000000007</v>
       </c>
       <c r="E34" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="35" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D35" s="1">
         <v>9.8000000000000007</v>
       </c>
       <c r="E35" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="36" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="D36" s="1">
         <v>9.8000000000000007</v>
       </c>
       <c r="E36" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="37" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
+        <v>75</v>
+      </c>
+      <c r="D37" s="1">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="E37" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="38" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
         <v>1</v>
-      </c>
-      <c r="D37" s="1">
-        <v>10</v>
-      </c>
-      <c r="E37" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C38" t="s">
-        <v>15</v>
       </c>
       <c r="D38" s="1">
         <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="39" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D39" s="1">
         <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="40" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D40" s="1">
         <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>26</v>
-      </c>
-      <c r="F40" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="41" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="41" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D41" s="1">
         <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="42" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="F41" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="42" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D42" s="1">
         <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>31</v>
-      </c>
-      <c r="F42" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="43" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="D43" s="1">
         <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="44" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="F43" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D44" s="1">
         <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>52</v>
-      </c>
-      <c r="F44" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="45" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="45" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D45" s="1">
-        <v>3.5</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>92</v>
+        <v>51</v>
       </c>
       <c r="F45" t="s">
-        <v>89</v>
-      </c>
-      <c r="H45" t="s">
-        <v>91</v>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="46" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C46" t="s">
+        <v>93</v>
+      </c>
+      <c r="D46" s="1">
+        <v>5</v>
+      </c>
+      <c r="E46" t="s">
+        <v>94</v>
+      </c>
+      <c r="F46" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C5:E5 C6:C45 E6:E45">
+  <conditionalFormatting sqref="C5:E5 C6:C46 E6:E46">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -1309,7 +1329,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D6:D45">
+  <conditionalFormatting sqref="D6:D46">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -1367,7 +1387,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D6:D45</xm:sqref>
+          <xm:sqref>D6:D46</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/Grind75 Confidence.xlsx
+++ b/Grind75 Confidence.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Digital Archive\RustProjects\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88E329BE-800D-47C2-8602-E13B5EA04C5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66F8B42F-5925-435D-9ADB-3DD9DC946ECB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18165" yWindow="0" windowWidth="41070" windowHeight="21000" xr2:uid="{11A97F8B-2513-4167-B9DF-06FEC2A8D357}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="102">
   <si>
     <t>Name</t>
   </si>
@@ -324,6 +324,24 @@
   </si>
   <si>
     <t>O(log(n))</t>
+  </si>
+  <si>
+    <t>combination_sum</t>
+  </si>
+  <si>
+    <t>Run search. Keep total and use cut value to remove previouss options. Run search adding current, and also run not adding but incrementing cut.</t>
+  </si>
+  <si>
+    <t>O(2^T)</t>
+  </si>
+  <si>
+    <t>permutations</t>
+  </si>
+  <si>
+    <t>O(n! * n^2)</t>
+  </si>
+  <si>
+    <t>Start with empty list and build it up adding each number individually. Add each new number to each possible index and then add the next number.</t>
   </si>
 </sst>
 </file>
@@ -420,10 +438,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{59B00E1C-0850-40C9-A663-E45A32C81570}" name="Table1" displayName="Table1" ref="C5:H46" totalsRowShown="0">
-  <autoFilter ref="C5:H46" xr:uid="{59B00E1C-0850-40C9-A663-E45A32C81570}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C6:H45">
-    <sortCondition ref="D5:D45"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{59B00E1C-0850-40C9-A663-E45A32C81570}" name="Table1" displayName="Table1" ref="C5:H48" totalsRowShown="0">
+  <autoFilter ref="C5:H48" xr:uid="{59B00E1C-0850-40C9-A663-E45A32C81570}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C6:H47">
+    <sortCondition ref="D5:D47"/>
   </sortState>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{3E47EF83-B245-4B73-A7C3-75E681F43F13}" name="Name"/>
@@ -754,10 +772,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E99034D2-4130-4274-94E8-AEA72754CE66}">
-  <dimension ref="C5:H46"/>
+  <dimension ref="C5:H48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -767,7 +785,7 @@
     <col min="5" max="5" width="149.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="45.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="54.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="3:8" x14ac:dyDescent="0.25">
@@ -893,147 +911,147 @@
     </row>
     <row r="13" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="D13" s="1">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="E13" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="F13" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>7</v>
+        <v>73</v>
       </c>
       <c r="D14" s="1">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="E14" t="s">
-        <v>8</v>
+        <v>92</v>
+      </c>
+      <c r="F14" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="D15" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E15" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
-        <v>42</v>
+        <v>93</v>
       </c>
       <c r="D16" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>94</v>
+      </c>
+      <c r="F16" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="D17" s="1">
         <v>6</v>
       </c>
       <c r="E17" t="s">
-        <v>55</v>
-      </c>
-      <c r="F17" t="s">
-        <v>56</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="D18" s="1">
         <v>6</v>
       </c>
       <c r="E18" t="s">
-        <v>64</v>
-      </c>
-      <c r="F18" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="D19" s="1">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>55</v>
+      </c>
+      <c r="F19" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D20" s="1">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="E20" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F20" t="s">
-        <v>62</v>
-      </c>
-      <c r="G20" t="s">
-        <v>62</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
-        <v>80</v>
+        <v>9</v>
       </c>
       <c r="D21" s="1">
         <v>6.5</v>
       </c>
       <c r="E21" t="s">
-        <v>81</v>
-      </c>
-      <c r="F21" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="D22" s="1">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="E22" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="F22" t="s">
-        <v>79</v>
+        <v>62</v>
+      </c>
+      <c r="G22" t="s">
+        <v>62</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D23" s="1">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="E23" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F23" t="s">
         <v>48</v>
@@ -1041,283 +1059,311 @@
     </row>
     <row r="24" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="D24" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E24" t="s">
-        <v>41</v>
+        <v>78</v>
+      </c>
+      <c r="F24" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="25" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D25" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E25" t="s">
-        <v>85</v>
+        <v>83</v>
+      </c>
+      <c r="F25" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
-        <v>86</v>
+        <v>40</v>
       </c>
       <c r="D26" s="1">
         <v>8</v>
       </c>
       <c r="E26" t="s">
-        <v>87</v>
-      </c>
-      <c r="F26" t="s">
-        <v>88</v>
-      </c>
-      <c r="G26" t="s">
-        <v>88</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="D27" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E27" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
-        <v>44</v>
+        <v>86</v>
       </c>
       <c r="D28" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E28" t="s">
-        <v>45</v>
+        <v>87</v>
+      </c>
+      <c r="F28" t="s">
+        <v>88</v>
+      </c>
+      <c r="G28" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="29" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
-        <v>71</v>
+        <v>11</v>
       </c>
       <c r="D29" s="1">
         <v>9</v>
       </c>
       <c r="E29" t="s">
-        <v>72</v>
-      </c>
-      <c r="F29" t="s">
-        <v>48</v>
-      </c>
-      <c r="G29" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="D30" s="1">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="E30" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="D31" s="1">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="E31" t="s">
-        <v>14</v>
+        <v>72</v>
+      </c>
+      <c r="F31" t="s">
+        <v>48</v>
+      </c>
+      <c r="G31" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="32" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="D32" s="1">
         <v>9.5</v>
       </c>
       <c r="E32" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="D33" s="1">
-        <v>9.6999999999999993</v>
+        <v>9.5</v>
       </c>
       <c r="E33" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D34" s="1">
-        <v>9.8000000000000007</v>
+        <v>9.5</v>
       </c>
       <c r="E34" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D35" s="1">
-        <v>9.8000000000000007</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="E35" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="D36" s="1">
         <v>9.8000000000000007</v>
       </c>
       <c r="E36" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="D37" s="1">
         <v>9.8000000000000007</v>
       </c>
       <c r="E37" t="s">
-        <v>76</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="D38" s="1">
-        <v>10</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="E38" t="s">
-        <v>4</v>
+        <v>39</v>
       </c>
     </row>
     <row r="39" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="D39" s="1">
-        <v>10</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="E39" t="s">
-        <v>16</v>
+        <v>76</v>
       </c>
     </row>
     <row r="40" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D40" s="1">
         <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D41" s="1">
         <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>26</v>
-      </c>
-      <c r="F41" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D42" s="1">
         <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="43" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D43" s="1">
         <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F43" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="44" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D44" s="1">
         <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="D45" s="1">
         <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="F45" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="46" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
-        <v>93</v>
+        <v>46</v>
       </c>
       <c r="D46" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>94</v>
-      </c>
-      <c r="F46" t="s">
-        <v>95</v>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="47" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C47" t="s">
+        <v>86</v>
+      </c>
+      <c r="D47" s="1">
+        <v>10</v>
+      </c>
+      <c r="E47" t="s">
+        <v>51</v>
+      </c>
+      <c r="F47" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="48" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C48" t="s">
+        <v>99</v>
+      </c>
+      <c r="D48" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="E48" t="s">
+        <v>101</v>
+      </c>
+      <c r="F48" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C5:E5 C6:C46 E6:E46">
+  <conditionalFormatting sqref="C5:E5 C6:C48 E6:E48">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -1329,7 +1375,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D6:D46">
+  <conditionalFormatting sqref="D6:D48">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -1356,7 +1402,7 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="H20" r:id="rId1" xr:uid="{8EE94633-AAF7-4B1D-B7EE-1CF0D6E36A70}"/>
+    <hyperlink ref="H22" r:id="rId1" xr:uid="{8EE94633-AAF7-4B1D-B7EE-1CF0D6E36A70}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -1387,7 +1433,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D6:D46</xm:sqref>
+          <xm:sqref>D6:D48</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/Grind75 Confidence.xlsx
+++ b/Grind75 Confidence.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Digital Archive\RustProjects\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66F8B42F-5925-435D-9ADB-3DD9DC946ECB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AD52B33-E96A-4022-B04D-51BBE8A2ACC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18165" yWindow="0" windowWidth="41070" windowHeight="21000" xr2:uid="{11A97F8B-2513-4167-B9DF-06FEC2A8D357}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="105">
   <si>
     <t>Name</t>
   </si>
@@ -68,9 +68,6 @@
     <t>best_time_to_buy_and_sell</t>
   </si>
   <si>
-    <t>Keep a max profit and a window_minimum. If current price is lower than min, make that the min, else calculate the possible profit for that day and only keep the max.</t>
-  </si>
-  <si>
     <t>valid_palindrome</t>
   </si>
   <si>
@@ -342,6 +339,18 @@
   </si>
   <si>
     <t>Start with empty list and build it up adding each number individually. Add each new number to each possible index and then add the next number.</t>
+  </si>
+  <si>
+    <t>Keep a running minimum and max profit. For each number update the minimum and calc the max profit. Upate the minum price and update the max profit.</t>
+  </si>
+  <si>
+    <t>O(n * log(n))</t>
+  </si>
+  <si>
+    <t>merge_intervals</t>
+  </si>
+  <si>
+    <t>Sort by start and then merge the intervals.</t>
   </si>
 </sst>
 </file>
@@ -438,10 +447,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{59B00E1C-0850-40C9-A663-E45A32C81570}" name="Table1" displayName="Table1" ref="C5:H48" totalsRowShown="0">
-  <autoFilter ref="C5:H48" xr:uid="{59B00E1C-0850-40C9-A663-E45A32C81570}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C6:H47">
-    <sortCondition ref="D5:D47"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{59B00E1C-0850-40C9-A663-E45A32C81570}" name="Table1" displayName="Table1" ref="C5:H49" totalsRowShown="0">
+  <autoFilter ref="C5:H49" xr:uid="{59B00E1C-0850-40C9-A663-E45A32C81570}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C6:H49">
+    <sortCondition ref="D5:D49"/>
   </sortState>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{3E47EF83-B245-4B73-A7C3-75E681F43F13}" name="Name"/>
@@ -772,10 +781,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E99034D2-4130-4274-94E8-AEA72754CE66}">
-  <dimension ref="C5:H48"/>
+  <dimension ref="C5:H49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -799,142 +808,142 @@
         <v>3</v>
       </c>
       <c r="F5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D6" s="1">
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D7" s="1">
         <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D8" s="1">
         <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D9" s="1">
         <v>3</v>
       </c>
       <c r="E9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" s="1">
         <v>3.5</v>
       </c>
       <c r="E10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D11" s="1">
         <v>3.5</v>
       </c>
       <c r="E11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D12" s="1">
         <v>4</v>
       </c>
       <c r="E12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D13" s="1">
         <v>4</v>
       </c>
       <c r="E13" t="s">
+        <v>96</v>
+      </c>
+      <c r="F13" t="s">
         <v>97</v>
-      </c>
-      <c r="F13" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="14" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D14" s="1">
         <v>4.5</v>
       </c>
       <c r="E14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -950,420 +959,434 @@
     </row>
     <row r="16" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D16" s="1">
         <v>5</v>
       </c>
       <c r="E16" t="s">
+        <v>93</v>
+      </c>
+      <c r="F16" t="s">
         <v>94</v>
-      </c>
-      <c r="F16" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="17" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D17" s="1">
         <v>6</v>
       </c>
       <c r="E17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D18" s="1">
         <v>6</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D19" s="1">
         <v>6</v>
       </c>
       <c r="E19" t="s">
+        <v>54</v>
+      </c>
+      <c r="F19" t="s">
         <v>55</v>
-      </c>
-      <c r="F19" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="20" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D20" s="1">
         <v>6</v>
       </c>
       <c r="E20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="D21" s="1">
         <v>6.5</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>67</v>
+      </c>
+      <c r="F21" t="s">
+        <v>61</v>
+      </c>
+      <c r="G21" t="s">
+        <v>61</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="D22" s="1">
         <v>6.5</v>
       </c>
       <c r="E22" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="F22" t="s">
-        <v>62</v>
-      </c>
-      <c r="G22" t="s">
-        <v>62</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="D23" s="1">
         <v>6.5</v>
       </c>
       <c r="E23" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="F23" t="s">
-        <v>48</v>
+        <v>99</v>
       </c>
     </row>
     <row r="24" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D24" s="1">
         <v>7</v>
       </c>
       <c r="E24" t="s">
+        <v>77</v>
+      </c>
+      <c r="F24" t="s">
         <v>78</v>
-      </c>
-      <c r="F24" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="25" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D25" s="1">
         <v>7</v>
       </c>
       <c r="E25" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D26" s="1">
         <v>8</v>
       </c>
       <c r="E26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D27" s="1">
         <v>8</v>
       </c>
       <c r="E27" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D28" s="1">
         <v>8</v>
       </c>
       <c r="E28" t="s">
+        <v>86</v>
+      </c>
+      <c r="F28" t="s">
         <v>87</v>
       </c>
-      <c r="F28" t="s">
-        <v>88</v>
-      </c>
       <c r="G28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="29" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D29" s="1">
         <v>9</v>
       </c>
       <c r="E29" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
     </row>
     <row r="30" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="D30" s="1">
         <v>9</v>
       </c>
       <c r="E30" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="D31" s="1">
         <v>9</v>
       </c>
       <c r="E31" t="s">
-        <v>72</v>
-      </c>
-      <c r="F31" t="s">
-        <v>48</v>
-      </c>
-      <c r="G31" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="D32" s="1">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="E32" t="s">
-        <v>6</v>
+        <v>71</v>
+      </c>
+      <c r="F32" t="s">
+        <v>47</v>
+      </c>
+      <c r="G32" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D33" s="1">
         <v>9.5</v>
       </c>
       <c r="E33" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D34" s="1">
         <v>9.5</v>
       </c>
       <c r="E34" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="D35" s="1">
-        <v>9.6999999999999993</v>
+        <v>9.5</v>
       </c>
       <c r="E35" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
-        <v>19</v>
+        <v>103</v>
       </c>
       <c r="D36" s="1">
-        <v>9.8000000000000007</v>
+        <v>9.5</v>
       </c>
       <c r="E36" t="s">
-        <v>20</v>
+        <v>104</v>
+      </c>
+      <c r="F36" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="37" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D37" s="1">
-        <v>9.8000000000000007</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="E37" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="D38" s="1">
         <v>9.8000000000000007</v>
       </c>
       <c r="E38" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
-        <v>75</v>
+        <v>33</v>
       </c>
       <c r="D39" s="1">
         <v>9.8000000000000007</v>
       </c>
       <c r="E39" t="s">
-        <v>76</v>
+        <v>34</v>
       </c>
     </row>
     <row r="40" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="D40" s="1">
-        <v>10</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="E40" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
-        <v>15</v>
+        <v>74</v>
       </c>
       <c r="D41" s="1">
-        <v>10</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="E41" t="s">
-        <v>16</v>
+        <v>75</v>
       </c>
     </row>
     <row r="42" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D42" s="1">
         <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="D43" s="1">
         <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>26</v>
-      </c>
-      <c r="F43" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D44" s="1">
         <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D45" s="1">
         <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F45" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="46" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="D46" s="1">
         <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
     </row>
     <row r="47" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
-        <v>86</v>
+        <v>29</v>
       </c>
       <c r="D47" s="1">
         <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="F47" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="48" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
-        <v>99</v>
+        <v>45</v>
       </c>
       <c r="D48" s="1">
-        <v>6.5</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>101</v>
-      </c>
-      <c r="F48" t="s">
-        <v>100</v>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C49" t="s">
+        <v>85</v>
+      </c>
+      <c r="D49" s="1">
+        <v>10</v>
+      </c>
+      <c r="E49" t="s">
+        <v>50</v>
+      </c>
+      <c r="F49" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C5:E5 C6:C48 E6:E48">
+  <conditionalFormatting sqref="C5:E5 C6:C49 E6:E49">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -1375,7 +1398,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D6:D48">
+  <conditionalFormatting sqref="D6:D49">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -1402,7 +1425,7 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="H22" r:id="rId1" xr:uid="{8EE94633-AAF7-4B1D-B7EE-1CF0D6E36A70}"/>
+    <hyperlink ref="H21" r:id="rId1" xr:uid="{8EE94633-AAF7-4B1D-B7EE-1CF0D6E36A70}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -1433,7 +1456,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D6:D48</xm:sqref>
+          <xm:sqref>D6:D49</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/Grind75 Confidence.xlsx
+++ b/Grind75 Confidence.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Digital Archive\RustProjects\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AD52B33-E96A-4022-B04D-51BBE8A2ACC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD4BD6EE-4BE9-4A87-931E-2F5DA22EA482}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18165" yWindow="0" windowWidth="41070" windowHeight="21000" xr2:uid="{11A97F8B-2513-4167-B9DF-06FEC2A8D357}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="107">
   <si>
     <t>Name</t>
   </si>
@@ -308,9 +309,6 @@
     <t>https://www.youtube.com/watch?v=Mjy4hd2xgrs</t>
   </si>
   <si>
-    <t>Use bottom up. Use an i cut value to prevent duplicates. Cut off half the tree. Start at the left counting coins and adding to the value.</t>
-  </si>
-  <si>
     <t>Just use DFS. Checking visited. Save known good nodes. Topological Sort is another option (kahns algorithm). If not visited every node then the course isn't possible.</t>
   </si>
   <si>
@@ -351,6 +349,15 @@
   </si>
   <si>
     <t>Sort by start and then merge the intervals.</t>
+  </si>
+  <si>
+    <t>lowest_common_ancestor_binary_tree</t>
+  </si>
+  <si>
+    <t>If self is value then return. Otherwise check left and right. If both are valid then self is the LCA, otherwise the one non-null is the LCA.</t>
+  </si>
+  <si>
+    <t>Start from 0 picking and adding coins. Use an "I" cut value to prevent duplicates. Cut off half the tree. Start at the left counting coins and adding to the value.</t>
   </si>
 </sst>
 </file>
@@ -447,10 +454,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{59B00E1C-0850-40C9-A663-E45A32C81570}" name="Table1" displayName="Table1" ref="C5:H49" totalsRowShown="0">
-  <autoFilter ref="C5:H49" xr:uid="{59B00E1C-0850-40C9-A663-E45A32C81570}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C6:H49">
-    <sortCondition ref="D5:D49"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{59B00E1C-0850-40C9-A663-E45A32C81570}" name="Table1" displayName="Table1" ref="C5:H50" totalsRowShown="0">
+  <autoFilter ref="C5:H50" xr:uid="{59B00E1C-0850-40C9-A663-E45A32C81570}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C6:H50">
+    <sortCondition ref="D5:D50"/>
   </sortState>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{3E47EF83-B245-4B73-A7C3-75E681F43F13}" name="Name"/>
@@ -781,15 +788,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E99034D2-4130-4274-94E8-AEA72754CE66}">
-  <dimension ref="C5:H49"/>
+  <dimension ref="C5:H50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.7109375" customWidth="1"/>
     <col min="4" max="4" width="36.7109375" customWidth="1"/>
     <col min="5" max="5" width="149.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.7109375" bestFit="1" customWidth="1"/>
@@ -892,7 +899,7 @@
         <v>3.5</v>
       </c>
       <c r="E11" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="F11" t="s">
         <v>87</v>
@@ -920,16 +927,16 @@
     </row>
     <row r="13" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D13" s="1">
         <v>4</v>
       </c>
       <c r="E13" t="s">
+        <v>95</v>
+      </c>
+      <c r="F13" t="s">
         <v>96</v>
-      </c>
-      <c r="F13" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="14" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -940,7 +947,7 @@
         <v>4.5</v>
       </c>
       <c r="E14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F14" t="s">
         <v>73</v>
@@ -959,16 +966,16 @@
     </row>
     <row r="16" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D16" s="1">
         <v>5</v>
       </c>
       <c r="E16" t="s">
+        <v>92</v>
+      </c>
+      <c r="F16" t="s">
         <v>93</v>
-      </c>
-      <c r="F16" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="17" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -1057,16 +1064,16 @@
     </row>
     <row r="23" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D23" s="1">
         <v>6.5</v>
       </c>
       <c r="E23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="24" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -1099,294 +1106,308 @@
     </row>
     <row r="26" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
-        <v>39</v>
+        <v>104</v>
       </c>
       <c r="D26" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E26" t="s">
-        <v>40</v>
+        <v>105</v>
+      </c>
+      <c r="F26" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
-        <v>83</v>
+        <v>39</v>
       </c>
       <c r="D27" s="1">
         <v>8</v>
       </c>
       <c r="E27" t="s">
-        <v>84</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D28" s="1">
         <v>8</v>
       </c>
       <c r="E28" t="s">
-        <v>86</v>
-      </c>
-      <c r="F28" t="s">
-        <v>87</v>
-      </c>
-      <c r="G28" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
-        <v>9</v>
+        <v>85</v>
       </c>
       <c r="D29" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E29" t="s">
-        <v>101</v>
+        <v>86</v>
+      </c>
+      <c r="F29" t="s">
+        <v>87</v>
+      </c>
+      <c r="G29" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="30" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D30" s="1">
         <v>9</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="D31" s="1">
         <v>9</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="D32" s="1">
         <v>9</v>
       </c>
       <c r="E32" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="33" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>70</v>
+      </c>
+      <c r="D33" s="1">
+        <v>9</v>
+      </c>
+      <c r="E33" t="s">
         <v>71</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F33" t="s">
         <v>47</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G33" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="33" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C33" t="s">
+    <row r="34" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
         <v>5</v>
-      </c>
-      <c r="D33" s="1">
-        <v>9.5</v>
-      </c>
-      <c r="E33" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C34" t="s">
-        <v>12</v>
       </c>
       <c r="D34" s="1">
         <v>9.5</v>
       </c>
       <c r="E34" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="35" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D35" s="1">
         <v>9.5</v>
       </c>
       <c r="E35" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="36" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
-        <v>103</v>
+        <v>16</v>
       </c>
       <c r="D36" s="1">
         <v>9.5</v>
       </c>
       <c r="E36" t="s">
-        <v>104</v>
-      </c>
-      <c r="F36" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="37" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C37" t="s">
+      <c r="D37" s="1">
+        <v>9.5</v>
+      </c>
+      <c r="E37" t="s">
+        <v>103</v>
+      </c>
+      <c r="F37" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="38" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
         <v>31</v>
       </c>
-      <c r="D37" s="1">
+      <c r="D38" s="1">
         <v>9.6999999999999993</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E38" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="38" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C38" t="s">
+    <row r="39" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
         <v>18</v>
-      </c>
-      <c r="D38" s="1">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="E38" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="39" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C39" t="s">
-        <v>33</v>
       </c>
       <c r="D39" s="1">
         <v>9.8000000000000007</v>
       </c>
       <c r="E39" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="40" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D40" s="1">
         <v>9.8000000000000007</v>
       </c>
       <c r="E40" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="41" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="41" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="D41" s="1">
         <v>9.8000000000000007</v>
       </c>
       <c r="E41" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="42" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C42" t="s">
+        <v>74</v>
+      </c>
+      <c r="D42" s="1">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="E42" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="42" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C42" t="s">
+    <row r="43" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C43" t="s">
         <v>1</v>
-      </c>
-      <c r="D42" s="1">
-        <v>10</v>
-      </c>
-      <c r="E42" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C43" t="s">
-        <v>14</v>
       </c>
       <c r="D43" s="1">
         <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="44" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D44" s="1">
         <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="45" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D45" s="1">
         <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>25</v>
-      </c>
-      <c r="F45" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="46" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="46" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D46" s="1">
         <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="47" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="F46" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="47" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D47" s="1">
         <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>30</v>
-      </c>
-      <c r="F47" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="48" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="D48" s="1">
         <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>46</v>
+        <v>30</v>
+      </c>
+      <c r="F48" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="49" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="D49" s="1">
         <v>10</v>
       </c>
       <c r="E49" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="50" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C50" t="s">
+        <v>85</v>
+      </c>
+      <c r="D50" s="1">
+        <v>10</v>
+      </c>
+      <c r="E50" t="s">
         <v>50</v>
       </c>
-      <c r="F49" t="s">
+      <c r="F50" t="s">
         <v>47</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C5:E5 C6:C49 E6:E49">
+  <conditionalFormatting sqref="C5:E5 C6:C50 E6:E50">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -1398,7 +1419,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D6:D49">
+  <conditionalFormatting sqref="D6:D50">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -1456,7 +1477,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D6:D49</xm:sqref>
+          <xm:sqref>D6:D50</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/Grind75 Confidence.xlsx
+++ b/Grind75 Confidence.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Digital Archive\RustProjects\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD4BD6EE-4BE9-4A87-931E-2F5DA22EA482}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F6B41BC-EB74-4059-8C49-710CE12B53BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18165" yWindow="0" windowWidth="41070" windowHeight="21000" xr2:uid="{11A97F8B-2513-4167-B9DF-06FEC2A8D357}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Solutions" sheetId="1" r:id="rId1"/>
+    <sheet name="Dashboard" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <fileRecoveryPr repairLoad="1"/>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="110">
   <si>
     <t>Name</t>
   </si>
@@ -358,6 +359,15 @@
   </si>
   <si>
     <t>Start from 0 picking and adding coins. Use an "I" cut value to prevent duplicates. Cut off half the tree. Start at the left counting coins and adding to the value.</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>time_based_key_value_store</t>
+  </si>
+  <si>
+    <t>Use hashmap and then use binary search in get. Need to handle the right end of the get specifically.</t>
   </si>
 </sst>
 </file>
@@ -454,8 +464,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{59B00E1C-0850-40C9-A663-E45A32C81570}" name="Table1" displayName="Table1" ref="C5:H50" totalsRowShown="0">
-  <autoFilter ref="C5:H50" xr:uid="{59B00E1C-0850-40C9-A663-E45A32C81570}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{59B00E1C-0850-40C9-A663-E45A32C81570}" name="Table1" displayName="Table1" ref="C5:H51" totalsRowShown="0">
+  <autoFilter ref="C5:H51" xr:uid="{59B00E1C-0850-40C9-A663-E45A32C81570}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C6:H50">
     <sortCondition ref="D5:D50"/>
   </sortState>
@@ -788,10 +798,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E99034D2-4130-4274-94E8-AEA72754CE66}">
-  <dimension ref="C5:H50"/>
+  <dimension ref="C5:H51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1406,8 +1416,22 @@
         <v>47</v>
       </c>
     </row>
+    <row r="51" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C51" t="s">
+        <v>108</v>
+      </c>
+      <c r="D51" s="1">
+        <v>7</v>
+      </c>
+      <c r="E51" t="s">
+        <v>109</v>
+      </c>
+      <c r="F51" t="s">
+        <v>93</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="C5:E5 C6:C50 E6:E50">
+  <conditionalFormatting sqref="C5:E5 C6:C51 E6:E51">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -1419,7 +1443,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D6:D50">
+  <conditionalFormatting sqref="D6:D51">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -1477,10 +1501,30 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D6:D50</xm:sqref>
+          <xm:sqref>D6:D51</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45C7DE27-474F-4E72-9759-8FE013B2C8D3}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Grind75 Confidence.xlsx
+++ b/Grind75 Confidence.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Digital Archive\RustProjects\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F6B41BC-EB74-4059-8C49-710CE12B53BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A9701A6-268D-4802-B337-A254D71FC156}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18165" yWindow="0" windowWidth="41070" windowHeight="21000" xr2:uid="{11A97F8B-2513-4167-B9DF-06FEC2A8D357}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="113">
   <si>
     <t>Name</t>
   </si>
@@ -368,6 +368,15 @@
   </si>
   <si>
     <t>Use hashmap and then use binary search in get. Need to handle the right end of the get specifically.</t>
+  </si>
+  <si>
+    <t>accounts_merge</t>
+  </si>
+  <si>
+    <t>Build a node graph of emails. Then use dfs to merge into accounts list. Then sort the accounts lists.</t>
+  </si>
+  <si>
+    <t>Hard to say</t>
   </si>
 </sst>
 </file>
@@ -464,8 +473,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{59B00E1C-0850-40C9-A663-E45A32C81570}" name="Table1" displayName="Table1" ref="C5:H51" totalsRowShown="0">
-  <autoFilter ref="C5:H51" xr:uid="{59B00E1C-0850-40C9-A663-E45A32C81570}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{59B00E1C-0850-40C9-A663-E45A32C81570}" name="Table1" displayName="Table1" ref="C5:H52" totalsRowShown="0">
+  <autoFilter ref="C5:H52" xr:uid="{59B00E1C-0850-40C9-A663-E45A32C81570}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C6:H50">
     <sortCondition ref="D5:D50"/>
   </sortState>
@@ -798,10 +807,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E99034D2-4130-4274-94E8-AEA72754CE66}">
-  <dimension ref="C5:H51"/>
+  <dimension ref="C5:H52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="F51" sqref="F51"/>
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1430,8 +1439,22 @@
         <v>93</v>
       </c>
     </row>
+    <row r="52" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C52" t="s">
+        <v>110</v>
+      </c>
+      <c r="D52" s="1">
+        <v>9</v>
+      </c>
+      <c r="E52" t="s">
+        <v>111</v>
+      </c>
+      <c r="F52" t="s">
+        <v>112</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="C5:E5 C6:C51 E6:E51">
+  <conditionalFormatting sqref="C5:E5 C6:C52 E6:E52">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -1443,7 +1466,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D6:D51">
+  <conditionalFormatting sqref="D6:D52">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -1501,7 +1524,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D6:D51</xm:sqref>
+          <xm:sqref>D6:D52</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/Grind75 Confidence.xlsx
+++ b/Grind75 Confidence.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Digital Archive\RustProjects\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A9701A6-268D-4802-B337-A254D71FC156}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB107B20-C897-48AB-B4B0-6CC33A1AD10E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18165" yWindow="0" windowWidth="41070" windowHeight="21000" xr2:uid="{11A97F8B-2513-4167-B9DF-06FEC2A8D357}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="115">
   <si>
     <t>Name</t>
   </si>
@@ -377,6 +377,12 @@
   </si>
   <si>
     <t>Hard to say</t>
+  </si>
+  <si>
+    <t>sort_colors</t>
+  </si>
+  <si>
+    <t>Bucket sort works but  is two passes. We can use a partition sort. Keep left pointer and right pointer. Swap 0 to left, and 2 to right. If swap to right then don't increment i. Be careful  to handle the rust usize bounds.</t>
   </si>
 </sst>
 </file>
@@ -473,10 +479,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{59B00E1C-0850-40C9-A663-E45A32C81570}" name="Table1" displayName="Table1" ref="C5:H52" totalsRowShown="0">
-  <autoFilter ref="C5:H52" xr:uid="{59B00E1C-0850-40C9-A663-E45A32C81570}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C6:H50">
-    <sortCondition ref="D5:D50"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{59B00E1C-0850-40C9-A663-E45A32C81570}" name="Table1" displayName="Table1" ref="C5:H53" totalsRowShown="0">
+  <autoFilter ref="C5:H53" xr:uid="{59B00E1C-0850-40C9-A663-E45A32C81570}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C6:H53">
+    <sortCondition ref="D5:D53"/>
   </sortState>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{3E47EF83-B245-4B73-A7C3-75E681F43F13}" name="Name"/>
@@ -807,17 +813,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E99034D2-4130-4274-94E8-AEA72754CE66}">
-  <dimension ref="C5:H52"/>
+  <dimension ref="C5:H53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+      <selection activeCell="E60" sqref="E60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="37.7109375" customWidth="1"/>
     <col min="4" max="4" width="36.7109375" customWidth="1"/>
-    <col min="5" max="5" width="149.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="189.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="54.42578125" customWidth="1"/>
@@ -1139,357 +1145,345 @@
     </row>
     <row r="27" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
-        <v>39</v>
+        <v>108</v>
       </c>
       <c r="D27" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E27" t="s">
-        <v>40</v>
+        <v>109</v>
+      </c>
+      <c r="F27" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="28" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
-        <v>83</v>
+        <v>39</v>
       </c>
       <c r="D28" s="1">
         <v>8</v>
       </c>
       <c r="E28" t="s">
-        <v>84</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D29" s="1">
         <v>8</v>
       </c>
       <c r="E29" t="s">
-        <v>86</v>
-      </c>
-      <c r="F29" t="s">
-        <v>87</v>
-      </c>
-      <c r="G29" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
-        <v>9</v>
+        <v>85</v>
       </c>
       <c r="D30" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E30" t="s">
-        <v>100</v>
+        <v>86</v>
+      </c>
+      <c r="F30" t="s">
+        <v>87</v>
+      </c>
+      <c r="G30" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="31" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
-        <v>10</v>
+        <v>113</v>
       </c>
       <c r="D31" s="1">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>114</v>
+      </c>
+      <c r="F31" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="32" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="D32" s="1">
         <v>9</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="D33" s="1">
         <v>9</v>
       </c>
       <c r="E33" t="s">
-        <v>71</v>
-      </c>
-      <c r="F33" t="s">
-        <v>47</v>
-      </c>
-      <c r="G33" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="D34" s="1">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="E34" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="D35" s="1">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="E35" t="s">
-        <v>13</v>
+        <v>71</v>
+      </c>
+      <c r="F35" t="s">
+        <v>47</v>
+      </c>
+      <c r="G35" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="D36" s="1">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="E36" t="s">
-        <v>17</v>
+        <v>111</v>
+      </c>
+      <c r="F36" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="37" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
-        <v>102</v>
+        <v>5</v>
       </c>
       <c r="D37" s="1">
         <v>9.5</v>
       </c>
       <c r="E37" t="s">
-        <v>103</v>
-      </c>
-      <c r="F37" t="s">
-        <v>101</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="D38" s="1">
-        <v>9.6999999999999993</v>
+        <v>9.5</v>
       </c>
       <c r="E38" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D39" s="1">
-        <v>9.8000000000000007</v>
+        <v>9.5</v>
       </c>
       <c r="E39" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="40" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
-        <v>33</v>
+        <v>102</v>
       </c>
       <c r="D40" s="1">
-        <v>9.8000000000000007</v>
+        <v>9.5</v>
       </c>
       <c r="E40" t="s">
-        <v>34</v>
+        <v>103</v>
+      </c>
+      <c r="F40" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="41" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D41" s="1">
-        <v>9.8000000000000007</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="E41" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="42" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
-        <v>74</v>
+        <v>18</v>
       </c>
       <c r="D42" s="1">
         <v>9.8000000000000007</v>
       </c>
       <c r="E42" t="s">
-        <v>75</v>
+        <v>19</v>
       </c>
     </row>
     <row r="43" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="D43" s="1">
-        <v>10</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="E43" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
     </row>
     <row r="44" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="D44" s="1">
-        <v>10</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="E44" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
     </row>
     <row r="45" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="D45" s="1">
-        <v>10</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="E45" t="s">
-        <v>21</v>
+        <v>75</v>
       </c>
     </row>
     <row r="46" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="D46" s="1">
         <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>25</v>
-      </c>
-      <c r="F46" t="s">
-        <v>47</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D47" s="1">
         <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="48" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D48" s="1">
         <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>30</v>
-      </c>
-      <c r="F48" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="D49" s="1">
         <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>46</v>
+        <v>25</v>
+      </c>
+      <c r="F49" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="50" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
-        <v>85</v>
+        <v>28</v>
       </c>
       <c r="D50" s="1">
         <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>50</v>
-      </c>
-      <c r="F50" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
     </row>
     <row r="51" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
-        <v>108</v>
+        <v>29</v>
       </c>
       <c r="D51" s="1">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>109</v>
+        <v>30</v>
       </c>
       <c r="F51" t="s">
-        <v>93</v>
+        <v>49</v>
       </c>
     </row>
     <row r="52" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
-        <v>110</v>
+        <v>45</v>
       </c>
       <c r="D52" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>111</v>
-      </c>
-      <c r="F52" t="s">
-        <v>112</v>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="53" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C53" t="s">
+        <v>85</v>
+      </c>
+      <c r="D53" s="1">
+        <v>10</v>
+      </c>
+      <c r="E53" t="s">
+        <v>50</v>
+      </c>
+      <c r="F53" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C5:E5 C6:C52 E6:E52">
-    <cfRule type="colorScale" priority="12">
+  <conditionalFormatting sqref="D6:D53">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
+        <cfvo type="percent" val="60"/>
         <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
       </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D6:D52">
-    <cfRule type="dataBar" priority="1">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="10"/>
-        <color rgb="FFAAC1E0"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{2EE54BA2-69A6-40D6-AD82-42C9C48961C1}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="2">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{B6A511FC-FEE8-4225-A2C7-E6E9F264DC56}</x14:id>
-        </ext>
-      </extLst>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
@@ -1500,35 +1494,6 @@
   <tableParts count="1">
     <tablePart r:id="rId3"/>
   </tableParts>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
-      <x14:conditionalFormattings>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{2EE54BA2-69A6-40D6-AD82-42C9C48961C1}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>10</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{B6A511FC-FEE8-4225-A2C7-E6E9F264DC56}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D6:D52</xm:sqref>
-        </x14:conditionalFormatting>
-      </x14:conditionalFormattings>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -1537,7 +1502,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Grind75 Confidence.xlsx
+++ b/Grind75 Confidence.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Digital Archive\RustProjects\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB107B20-C897-48AB-B4B0-6CC33A1AD10E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D382E600-BE2C-4DC9-97F2-00EDBCAF6626}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18165" yWindow="0" windowWidth="41070" windowHeight="21000" xr2:uid="{11A97F8B-2513-4167-B9DF-06FEC2A8D357}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="123">
   <si>
     <t>Name</t>
   </si>
@@ -383,6 +383,30 @@
   </si>
   <si>
     <t>Bucket sort works but  is two passes. We can use a partition sort. Keep left pointer and right pointer. Swap 0 to left, and 2 to right. If swap to right then don't increment i. Be careful  to handle the rust usize bounds.</t>
+  </si>
+  <si>
+    <t>min_stack</t>
+  </si>
+  <si>
+    <t>didn't solve</t>
+  </si>
+  <si>
+    <t>On each insert store the current minimum, then update the minimum using the inserted value.</t>
+  </si>
+  <si>
+    <t>O(1)</t>
+  </si>
+  <si>
+    <t>kth_largest_element_in_array</t>
+  </si>
+  <si>
+    <t>Three possible options. Just sort. O(nlogn). Use BinaryHearp O(nlogk) because only ever sorting k values. Use QuickSelect, average O(n + k) but worse case O(n^2).</t>
+  </si>
+  <si>
+    <t>word_break</t>
+  </si>
+  <si>
+    <t>DP or DFS solutions possible. Dfs solution check each word as a prefix, then dfs check the remaining. DP solution start at end of string and check if a match is possible. If a match is possible then verify the previous DP solution and save in DP array.</t>
   </si>
 </sst>
 </file>
@@ -435,16 +459,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
     <dxf>
       <font>
         <b/>
@@ -459,6 +491,10 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -479,15 +515,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{59B00E1C-0850-40C9-A663-E45A32C81570}" name="Table1" displayName="Table1" ref="C5:H53" totalsRowShown="0">
-  <autoFilter ref="C5:H53" xr:uid="{59B00E1C-0850-40C9-A663-E45A32C81570}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C6:H53">
-    <sortCondition ref="D5:D53"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{59B00E1C-0850-40C9-A663-E45A32C81570}" name="Table1" displayName="Table1" ref="C5:H56" totalsRowShown="0">
+  <autoFilter ref="C5:H56" xr:uid="{59B00E1C-0850-40C9-A663-E45A32C81570}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C6:H56">
+    <sortCondition ref="D5:D56"/>
   </sortState>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{3E47EF83-B245-4B73-A7C3-75E681F43F13}" name="Name"/>
     <tableColumn id="2" xr3:uid="{6CBE43AC-C563-4032-A990-DE0BA9338384}" name="Confidence" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{A9886979-9BC5-46F1-A237-9E0C2B0DBA49}" name="Description"/>
+    <tableColumn id="3" xr3:uid="{A9886979-9BC5-46F1-A237-9E0C2B0DBA49}" name="Description" dataDxfId="1"/>
     <tableColumn id="4" xr3:uid="{F687C78F-3A5A-4FFC-A018-767879695849}" name="Time Complexity"/>
     <tableColumn id="5" xr3:uid="{4851A160-0A69-4A15-A31B-7CEDC06037D3}" name="Worst Case"/>
     <tableColumn id="6" xr3:uid="{DF1F1C43-26DE-4E7F-B0B3-68E3ADBBD8E8}" name="Resources"/>
@@ -813,17 +849,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E99034D2-4130-4274-94E8-AEA72754CE66}">
-  <dimension ref="C5:H53"/>
+  <dimension ref="C5:H56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="E60" sqref="E60"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="37.7109375" customWidth="1"/>
-    <col min="4" max="4" width="36.7109375" customWidth="1"/>
-    <col min="5" max="5" width="189.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.7109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="149.140625" customWidth="1"/>
     <col min="6" max="6" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="54.42578125" customWidth="1"/>
@@ -833,7 +869,7 @@
       <c r="C5" t="s">
         <v>0</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E5" t="s">
@@ -853,10 +889,10 @@
       <c r="C6" t="s">
         <v>58</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="4">
         <v>0</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="2" t="s">
         <v>59</v>
       </c>
       <c r="F6" t="s">
@@ -870,10 +906,10 @@
       <c r="C7" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="4">
         <v>2</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="2" t="s">
         <v>36</v>
       </c>
     </row>
@@ -881,10 +917,10 @@
       <c r="C8" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="4">
         <v>3</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="2" t="s">
         <v>52</v>
       </c>
       <c r="F8" t="s">
@@ -895,10 +931,10 @@
       <c r="C9" t="s">
         <v>56</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="4">
         <v>3</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="2" t="s">
         <v>57</v>
       </c>
       <c r="F9" t="s">
@@ -909,10 +945,10 @@
       <c r="C10" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="4">
         <v>3.5</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="2" t="s">
         <v>27</v>
       </c>
     </row>
@@ -920,10 +956,10 @@
       <c r="C11" t="s">
         <v>88</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="4">
         <v>3.5</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="2" t="s">
         <v>106</v>
       </c>
       <c r="F11" t="s">
@@ -937,10 +973,10 @@
       <c r="C12" t="s">
         <v>68</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="4">
         <v>4</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="2" t="s">
         <v>69</v>
       </c>
       <c r="F12" t="s">
@@ -954,190 +990,190 @@
       <c r="C13" t="s">
         <v>94</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="4">
         <v>4</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="2" t="s">
         <v>95</v>
       </c>
       <c r="F13" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="14" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:8" ht="30" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>72</v>
-      </c>
-      <c r="D14" s="1">
-        <v>4.5</v>
-      </c>
-      <c r="E14" t="s">
-        <v>90</v>
+        <v>121</v>
+      </c>
+      <c r="D14" s="4">
+        <v>4</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>122</v>
       </c>
       <c r="F14" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="1">
-        <v>5</v>
-      </c>
-      <c r="E15" t="s">
-        <v>8</v>
+        <v>72</v>
+      </c>
+      <c r="D15" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F15" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
-        <v>91</v>
-      </c>
-      <c r="D16" s="1">
+        <v>7</v>
+      </c>
+      <c r="D16" s="4">
         <v>5</v>
       </c>
-      <c r="E16" t="s">
-        <v>92</v>
-      </c>
-      <c r="F16" t="s">
-        <v>93</v>
+      <c r="E16" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" s="1">
-        <v>6</v>
-      </c>
-      <c r="E17" t="s">
-        <v>23</v>
+        <v>91</v>
+      </c>
+      <c r="D17" s="4">
+        <v>5</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F17" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>41</v>
-      </c>
-      <c r="D18" s="1">
+        <v>22</v>
+      </c>
+      <c r="D18" s="4">
         <v>6</v>
       </c>
-      <c r="E18" t="s">
-        <v>42</v>
+      <c r="E18" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>53</v>
-      </c>
-      <c r="D19" s="1">
+        <v>41</v>
+      </c>
+      <c r="D19" s="4">
         <v>6</v>
       </c>
-      <c r="E19" t="s">
-        <v>54</v>
-      </c>
-      <c r="F19" t="s">
-        <v>55</v>
+      <c r="E19" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
-        <v>62</v>
-      </c>
-      <c r="D20" s="1">
+        <v>53</v>
+      </c>
+      <c r="D20" s="4">
         <v>6</v>
       </c>
-      <c r="E20" t="s">
-        <v>63</v>
+      <c r="E20" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="F20" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
-        <v>65</v>
-      </c>
-      <c r="D21" s="1">
-        <v>6.5</v>
-      </c>
-      <c r="E21" t="s">
-        <v>67</v>
+        <v>62</v>
+      </c>
+      <c r="D21" s="4">
+        <v>6</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="F21" t="s">
-        <v>61</v>
-      </c>
-      <c r="G21" t="s">
-        <v>61</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
-        <v>79</v>
-      </c>
-      <c r="D22" s="1">
+        <v>65</v>
+      </c>
+      <c r="D22" s="4">
         <v>6.5</v>
       </c>
-      <c r="E22" t="s">
-        <v>80</v>
+      <c r="E22" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="F22" t="s">
-        <v>47</v>
+        <v>61</v>
+      </c>
+      <c r="G22" t="s">
+        <v>61</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
-        <v>97</v>
-      </c>
-      <c r="D23" s="1">
+        <v>79</v>
+      </c>
+      <c r="D23" s="4">
         <v>6.5</v>
       </c>
-      <c r="E23" t="s">
-        <v>99</v>
+      <c r="E23" s="2" t="s">
+        <v>80</v>
       </c>
       <c r="F23" t="s">
-        <v>98</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
-        <v>76</v>
-      </c>
-      <c r="D24" s="1">
-        <v>7</v>
-      </c>
-      <c r="E24" t="s">
-        <v>77</v>
+        <v>97</v>
+      </c>
+      <c r="D24" s="4">
+        <v>6.5</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>99</v>
       </c>
       <c r="F24" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
     </row>
     <row r="25" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
-        <v>81</v>
-      </c>
-      <c r="D25" s="1">
+        <v>76</v>
+      </c>
+      <c r="D25" s="4">
         <v>7</v>
       </c>
-      <c r="E25" t="s">
-        <v>82</v>
+      <c r="E25" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="F25" t="s">
-        <v>47</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
-        <v>104</v>
-      </c>
-      <c r="D26" s="1">
+        <v>81</v>
+      </c>
+      <c r="D26" s="4">
         <v>7</v>
       </c>
-      <c r="E26" t="s">
-        <v>105</v>
+      <c r="E26" s="2" t="s">
+        <v>82</v>
       </c>
       <c r="F26" t="s">
         <v>47</v>
@@ -1145,341 +1181,380 @@
     </row>
     <row r="27" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
-        <v>108</v>
-      </c>
-      <c r="D27" s="1">
+        <v>104</v>
+      </c>
+      <c r="D27" s="4">
         <v>7</v>
       </c>
-      <c r="E27" t="s">
-        <v>109</v>
+      <c r="E27" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="F27" t="s">
-        <v>93</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
-        <v>39</v>
-      </c>
-      <c r="D28" s="1">
-        <v>8</v>
-      </c>
-      <c r="E28" t="s">
-        <v>40</v>
+        <v>108</v>
+      </c>
+      <c r="D28" s="4">
+        <v>7</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F28" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="29" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
-        <v>83</v>
-      </c>
-      <c r="D29" s="1">
+        <v>39</v>
+      </c>
+      <c r="D29" s="4">
         <v>8</v>
       </c>
-      <c r="E29" t="s">
-        <v>84</v>
+      <c r="E29" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
-        <v>85</v>
-      </c>
-      <c r="D30" s="1">
+        <v>83</v>
+      </c>
+      <c r="D30" s="4">
         <v>8</v>
       </c>
-      <c r="E30" t="s">
-        <v>86</v>
-      </c>
-      <c r="F30" t="s">
-        <v>87</v>
-      </c>
-      <c r="G30" t="s">
-        <v>87</v>
+      <c r="E30" s="2" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="31" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
+        <v>85</v>
+      </c>
+      <c r="D31" s="4">
+        <v>8</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F31" t="s">
+        <v>87</v>
+      </c>
+      <c r="G31" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="32" spans="3:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
         <v>113</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D32" s="4">
         <v>8.5</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E32" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F32" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="32" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C32" t="s">
-        <v>9</v>
-      </c>
-      <c r="D32" s="1">
-        <v>9</v>
-      </c>
-      <c r="E32" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="33" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
-        <v>10</v>
-      </c>
-      <c r="D33" s="1">
         <v>9</v>
       </c>
-      <c r="E33" t="s">
-        <v>11</v>
+      <c r="D33" s="4">
+        <v>9</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="34" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
-        <v>43</v>
-      </c>
-      <c r="D34" s="1">
+        <v>10</v>
+      </c>
+      <c r="D34" s="4">
         <v>9</v>
       </c>
-      <c r="E34" t="s">
-        <v>44</v>
+      <c r="E34" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="35" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
-        <v>70</v>
-      </c>
-      <c r="D35" s="1">
+        <v>43</v>
+      </c>
+      <c r="D35" s="4">
         <v>9</v>
       </c>
-      <c r="E35" t="s">
-        <v>71</v>
-      </c>
-      <c r="F35" t="s">
-        <v>47</v>
-      </c>
-      <c r="G35" t="s">
-        <v>47</v>
+      <c r="E35" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="36" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
-        <v>110</v>
-      </c>
-      <c r="D36" s="1">
+        <v>70</v>
+      </c>
+      <c r="D36" s="4">
         <v>9</v>
       </c>
-      <c r="E36" t="s">
-        <v>111</v>
+      <c r="E36" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="F36" t="s">
-        <v>112</v>
+        <v>47</v>
+      </c>
+      <c r="G36" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="37" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
-        <v>5</v>
-      </c>
-      <c r="D37" s="1">
-        <v>9.5</v>
-      </c>
-      <c r="E37" t="s">
-        <v>6</v>
+        <v>110</v>
+      </c>
+      <c r="D37" s="4">
+        <v>9</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F37" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="38" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
-        <v>12</v>
-      </c>
-      <c r="D38" s="1">
+        <v>5</v>
+      </c>
+      <c r="D38" s="4">
         <v>9.5</v>
       </c>
-      <c r="E38" t="s">
-        <v>13</v>
+      <c r="E38" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
-        <v>16</v>
-      </c>
-      <c r="D39" s="1">
+        <v>12</v>
+      </c>
+      <c r="D39" s="4">
         <v>9.5</v>
       </c>
-      <c r="E39" t="s">
-        <v>17</v>
+      <c r="E39" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="40" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
-        <v>102</v>
-      </c>
-      <c r="D40" s="1">
+        <v>16</v>
+      </c>
+      <c r="D40" s="4">
         <v>9.5</v>
       </c>
-      <c r="E40" t="s">
-        <v>103</v>
-      </c>
-      <c r="F40" t="s">
-        <v>101</v>
+      <c r="E40" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="41" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
-        <v>31</v>
-      </c>
-      <c r="D41" s="1">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="E41" t="s">
-        <v>32</v>
+        <v>102</v>
+      </c>
+      <c r="D41" s="4">
+        <v>9.5</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F41" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="42" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
-        <v>18</v>
-      </c>
-      <c r="D42" s="1">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="E42" t="s">
-        <v>19</v>
+        <v>31</v>
+      </c>
+      <c r="D42" s="4">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="43" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
-        <v>33</v>
-      </c>
-      <c r="D43" s="1">
+        <v>18</v>
+      </c>
+      <c r="D43" s="4">
         <v>9.8000000000000007</v>
       </c>
-      <c r="E43" t="s">
-        <v>34</v>
+      <c r="E43" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="44" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
-        <v>37</v>
-      </c>
-      <c r="D44" s="1">
+        <v>33</v>
+      </c>
+      <c r="D44" s="4">
         <v>9.8000000000000007</v>
       </c>
-      <c r="E44" t="s">
-        <v>38</v>
+      <c r="E44" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="45" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
-        <v>74</v>
-      </c>
-      <c r="D45" s="1">
+        <v>37</v>
+      </c>
+      <c r="D45" s="4">
         <v>9.8000000000000007</v>
       </c>
-      <c r="E45" t="s">
-        <v>75</v>
+      <c r="E45" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="46" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
-        <v>1</v>
-      </c>
-      <c r="D46" s="1">
-        <v>10</v>
-      </c>
-      <c r="E46" t="s">
-        <v>4</v>
+        <v>74</v>
+      </c>
+      <c r="D46" s="4">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="47" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
-        <v>14</v>
-      </c>
-      <c r="D47" s="1">
+        <v>1</v>
+      </c>
+      <c r="D47" s="4">
         <v>10</v>
       </c>
-      <c r="E47" t="s">
-        <v>15</v>
+      <c r="E47" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="48" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
-        <v>20</v>
-      </c>
-      <c r="D48" s="1">
+        <v>14</v>
+      </c>
+      <c r="D48" s="4">
         <v>10</v>
       </c>
-      <c r="E48" t="s">
-        <v>21</v>
+      <c r="E48" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="49" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
-        <v>24</v>
-      </c>
-      <c r="D49" s="1">
+        <v>20</v>
+      </c>
+      <c r="D49" s="4">
         <v>10</v>
       </c>
-      <c r="E49" t="s">
-        <v>25</v>
-      </c>
-      <c r="F49" t="s">
-        <v>47</v>
+      <c r="E49" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="50" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
-        <v>28</v>
-      </c>
-      <c r="D50" s="1">
+        <v>24</v>
+      </c>
+      <c r="D50" s="4">
         <v>10</v>
       </c>
-      <c r="E50" t="s">
-        <v>17</v>
+      <c r="E50" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F50" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="51" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
-        <v>29</v>
-      </c>
-      <c r="D51" s="1">
+        <v>28</v>
+      </c>
+      <c r="D51" s="4">
         <v>10</v>
       </c>
-      <c r="E51" t="s">
-        <v>30</v>
-      </c>
-      <c r="F51" t="s">
-        <v>49</v>
+      <c r="E51" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="52" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
-        <v>45</v>
-      </c>
-      <c r="D52" s="1">
+        <v>29</v>
+      </c>
+      <c r="D52" s="4">
         <v>10</v>
       </c>
-      <c r="E52" t="s">
-        <v>46</v>
+      <c r="E52" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F52" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="53" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
+        <v>45</v>
+      </c>
+      <c r="D53" s="4">
+        <v>10</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="54" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C54" t="s">
         <v>85</v>
       </c>
-      <c r="D53" s="1">
+      <c r="D54" s="4">
         <v>10</v>
       </c>
-      <c r="E53" t="s">
+      <c r="E54" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F53" t="s">
+      <c r="F54" t="s">
         <v>47</v>
       </c>
     </row>
+    <row r="55" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C55" t="s">
+        <v>115</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F55" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="56" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C56" t="s">
+        <v>119</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="D6:D53">
+  <conditionalFormatting sqref="D6:D56">
     <cfRule type="colorScale" priority="1">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percent" val="60"/>
-        <cfvo type="max"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="6"/>
+        <cfvo type="num" val="10"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -1487,7 +1562,7 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="H21" r:id="rId1" xr:uid="{8EE94633-AAF7-4B1D-B7EE-1CF0D6E36A70}"/>
+    <hyperlink ref="H22" r:id="rId1" xr:uid="{8EE94633-AAF7-4B1D-B7EE-1CF0D6E36A70}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
